--- a/database/industries/methanol/shekhark/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shekhark/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D869A3-2CD4-4FA7-8D36-F11EED7E051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF94FC2-1884-41F0-9F2C-9F944E7A0831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1721,80 +1721,80 @@
       <c r="X13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="15" t="s">
-        <v>60</v>
+      <c r="Y13" s="15">
+        <v>4739</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>6119</v>
       </c>
       <c r="AA13" s="15">
-        <v>4739</v>
+        <v>66440</v>
       </c>
       <c r="AB13" s="15">
-        <v>6119</v>
+        <v>6940</v>
       </c>
       <c r="AC13" s="15">
-        <v>66440</v>
+        <v>6499</v>
       </c>
       <c r="AD13" s="15">
-        <v>6940</v>
+        <v>1070</v>
       </c>
       <c r="AE13" s="15">
-        <v>6499</v>
+        <v>8383</v>
       </c>
       <c r="AF13" s="15">
-        <v>1070</v>
+        <v>8627</v>
       </c>
       <c r="AG13" s="15">
-        <v>8383</v>
+        <v>6277</v>
       </c>
       <c r="AH13" s="15">
-        <v>8627</v>
+        <v>7533</v>
       </c>
       <c r="AI13" s="15">
-        <v>6277</v>
+        <v>7470</v>
       </c>
       <c r="AJ13" s="15">
-        <v>7533</v>
+        <v>5063</v>
       </c>
       <c r="AK13" s="15">
-        <v>7470</v>
+        <v>6535</v>
       </c>
       <c r="AL13" s="15">
-        <v>5063</v>
+        <v>4979</v>
       </c>
       <c r="AM13" s="15">
-        <v>6535</v>
+        <v>8299</v>
       </c>
       <c r="AN13" s="15">
-        <v>4979</v>
+        <v>8061</v>
       </c>
       <c r="AO13" s="15">
-        <v>8299</v>
+        <v>7717</v>
       </c>
       <c r="AP13" s="15">
-        <v>8061</v>
+        <v>6939</v>
       </c>
       <c r="AQ13" s="15">
-        <v>7717</v>
+        <v>7175</v>
       </c>
       <c r="AR13" s="15">
-        <v>6939</v>
+        <v>7988</v>
       </c>
       <c r="AS13" s="15">
-        <v>7175</v>
+        <v>9080</v>
       </c>
       <c r="AT13" s="15">
-        <v>7988</v>
-      </c>
-      <c r="AU13" s="15">
-        <v>9080</v>
-      </c>
-      <c r="AV13" s="15">
         <v>8926</v>
       </c>
-      <c r="AW13" s="15">
-        <v>8249</v>
+      <c r="AU13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW13" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AX13" s="15" t="s">
         <v>60</v>
@@ -1880,80 +1880,80 @@
       <c r="X14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>60</v>
+      <c r="Y14" s="17">
+        <v>58809</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>57818</v>
       </c>
       <c r="AA14" s="17">
-        <v>58809</v>
+        <v>58241</v>
       </c>
       <c r="AB14" s="17">
-        <v>57818</v>
+        <v>44206</v>
       </c>
       <c r="AC14" s="17">
-        <v>58241</v>
+        <v>47370</v>
       </c>
       <c r="AD14" s="17">
-        <v>44206</v>
+        <v>51980</v>
       </c>
       <c r="AE14" s="17">
-        <v>47370</v>
+        <v>47376</v>
       </c>
       <c r="AF14" s="17">
-        <v>51980</v>
+        <v>54519</v>
       </c>
       <c r="AG14" s="17">
-        <v>47376</v>
+        <v>53288</v>
       </c>
       <c r="AH14" s="17">
-        <v>54519</v>
+        <v>55287</v>
       </c>
       <c r="AI14" s="17">
-        <v>53288</v>
+        <v>34495</v>
       </c>
       <c r="AJ14" s="17">
-        <v>55287</v>
+        <v>13071</v>
       </c>
       <c r="AK14" s="17">
-        <v>34495</v>
+        <v>61428</v>
       </c>
       <c r="AL14" s="17">
-        <v>13071</v>
+        <v>57554</v>
       </c>
       <c r="AM14" s="17">
-        <v>61428</v>
+        <v>61164</v>
       </c>
       <c r="AN14" s="17">
-        <v>57554</v>
+        <v>59311</v>
       </c>
       <c r="AO14" s="17">
-        <v>61164</v>
+        <v>55026</v>
       </c>
       <c r="AP14" s="17">
-        <v>59311</v>
+        <v>59527</v>
       </c>
       <c r="AQ14" s="17">
-        <v>55026</v>
+        <v>58891</v>
       </c>
       <c r="AR14" s="17">
-        <v>59527</v>
+        <v>60355</v>
       </c>
       <c r="AS14" s="17">
-        <v>58891</v>
+        <v>49330</v>
       </c>
       <c r="AT14" s="17">
-        <v>60355</v>
-      </c>
-      <c r="AU14" s="17">
-        <v>49330</v>
-      </c>
-      <c r="AV14" s="17">
         <v>41724</v>
       </c>
-      <c r="AW14" s="17">
-        <v>58219</v>
+      <c r="AU14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW14" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AX14" s="17" t="s">
         <v>60</v>
@@ -2039,95 +2039,95 @@
       <c r="X15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z15" s="15" t="s">
-        <v>60</v>
+      <c r="Y15" s="15">
+        <v>8074</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>8167</v>
       </c>
       <c r="AA15" s="15">
-        <v>8074</v>
+        <v>8300</v>
       </c>
       <c r="AB15" s="15">
-        <v>8167</v>
+        <v>7727</v>
       </c>
       <c r="AC15" s="15">
-        <v>8300</v>
+        <v>8169</v>
       </c>
       <c r="AD15" s="15">
-        <v>7727</v>
+        <v>1319</v>
       </c>
       <c r="AE15" s="15">
-        <v>8169</v>
+        <v>10611</v>
       </c>
       <c r="AF15" s="15">
-        <v>1319</v>
+        <v>11651</v>
       </c>
       <c r="AG15" s="15">
-        <v>10611</v>
+        <v>6685</v>
       </c>
       <c r="AH15" s="15">
-        <v>11651</v>
+        <v>8674</v>
       </c>
       <c r="AI15" s="15">
-        <v>6685</v>
+        <v>11313</v>
       </c>
       <c r="AJ15" s="15">
-        <v>8674</v>
+        <v>8472</v>
       </c>
       <c r="AK15" s="15">
-        <v>11313</v>
+        <v>9228</v>
       </c>
       <c r="AL15" s="15">
-        <v>8472</v>
+        <v>10890</v>
       </c>
       <c r="AM15" s="15">
-        <v>9228</v>
+        <v>10714</v>
       </c>
       <c r="AN15" s="15">
-        <v>10890</v>
+        <v>8271</v>
       </c>
       <c r="AO15" s="15">
-        <v>10714</v>
+        <v>8156</v>
       </c>
       <c r="AP15" s="15">
-        <v>8271</v>
+        <v>8491</v>
       </c>
       <c r="AQ15" s="15">
-        <v>8156</v>
+        <v>8188</v>
       </c>
       <c r="AR15" s="15">
-        <v>8491</v>
+        <v>9023</v>
       </c>
       <c r="AS15" s="15">
-        <v>8188</v>
+        <v>6844</v>
       </c>
       <c r="AT15" s="15">
-        <v>9023</v>
+        <v>9287</v>
       </c>
       <c r="AU15" s="15">
-        <v>6844</v>
+        <v>8380</v>
       </c>
       <c r="AV15" s="15">
-        <v>9453</v>
+        <v>8862</v>
       </c>
       <c r="AW15" s="15">
-        <v>8552</v>
+        <v>8745</v>
       </c>
       <c r="AX15" s="15">
-        <v>8862</v>
+        <v>8859</v>
       </c>
       <c r="AY15" s="15">
-        <v>8745</v>
+        <v>8681</v>
       </c>
       <c r="AZ15" s="15">
-        <v>7972</v>
+        <v>9982</v>
       </c>
       <c r="BA15" s="15">
-        <v>8681</v>
+        <v>11190</v>
       </c>
       <c r="BB15" s="15">
-        <v>9982</v>
+        <v>11126</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2198,95 +2198,95 @@
       <c r="X16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>60</v>
+      <c r="Y16" s="17">
+        <v>5658</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>6830</v>
       </c>
       <c r="AA16" s="17">
-        <v>5658</v>
+        <v>6970</v>
       </c>
       <c r="AB16" s="17">
-        <v>6830</v>
+        <v>6623</v>
       </c>
       <c r="AC16" s="17">
-        <v>6970</v>
+        <v>6846</v>
       </c>
       <c r="AD16" s="17">
-        <v>6623</v>
+        <v>567</v>
       </c>
       <c r="AE16" s="17">
-        <v>6846</v>
+        <v>9168</v>
       </c>
       <c r="AF16" s="17">
-        <v>567</v>
+        <v>8714</v>
       </c>
       <c r="AG16" s="17">
-        <v>9168</v>
+        <v>4835</v>
       </c>
       <c r="AH16" s="17">
-        <v>8714</v>
+        <v>6080</v>
       </c>
       <c r="AI16" s="17">
-        <v>4835</v>
+        <v>8800</v>
       </c>
       <c r="AJ16" s="17">
-        <v>6080</v>
+        <v>6310</v>
       </c>
       <c r="AK16" s="17">
-        <v>8800</v>
+        <v>7503</v>
       </c>
       <c r="AL16" s="17">
-        <v>6310</v>
+        <v>7090</v>
       </c>
       <c r="AM16" s="17">
-        <v>7503</v>
+        <v>6915</v>
       </c>
       <c r="AN16" s="17">
-        <v>7090</v>
+        <v>6258</v>
       </c>
       <c r="AO16" s="17">
-        <v>6915</v>
+        <v>5620</v>
       </c>
       <c r="AP16" s="17">
-        <v>6258</v>
+        <v>5948</v>
       </c>
       <c r="AQ16" s="17">
-        <v>5620</v>
+        <v>6319</v>
       </c>
       <c r="AR16" s="17">
-        <v>5948</v>
+        <v>6567</v>
       </c>
       <c r="AS16" s="17">
-        <v>6319</v>
+        <v>4491</v>
       </c>
       <c r="AT16" s="17">
-        <v>6567</v>
+        <v>6188</v>
       </c>
       <c r="AU16" s="17">
-        <v>4491</v>
+        <v>5501</v>
       </c>
       <c r="AV16" s="17">
-        <v>6428</v>
+        <v>5689</v>
       </c>
       <c r="AW16" s="17">
-        <v>5748</v>
+        <v>5975</v>
       </c>
       <c r="AX16" s="17">
-        <v>5689</v>
+        <v>6901</v>
       </c>
       <c r="AY16" s="17">
-        <v>5975</v>
+        <v>6095</v>
       </c>
       <c r="AZ16" s="17">
-        <v>5527</v>
+        <v>7986</v>
       </c>
       <c r="BA16" s="17">
-        <v>6095</v>
+        <v>9222</v>
       </c>
       <c r="BB16" s="17">
-        <v>7986</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2357,74 +2357,74 @@
       <c r="X17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z17" s="15" t="s">
-        <v>60</v>
+      <c r="Y17" s="15">
+        <v>5973</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>7626</v>
       </c>
       <c r="AA17" s="15">
-        <v>5973</v>
+        <v>7350</v>
       </c>
       <c r="AB17" s="15">
-        <v>7626</v>
+        <v>6785</v>
       </c>
       <c r="AC17" s="15">
-        <v>7350</v>
+        <v>6517</v>
       </c>
       <c r="AD17" s="15">
-        <v>6785</v>
+        <v>685</v>
       </c>
       <c r="AE17" s="15">
-        <v>6517</v>
+        <v>7655</v>
       </c>
       <c r="AF17" s="15">
-        <v>685</v>
+        <v>7837</v>
       </c>
       <c r="AG17" s="15">
-        <v>7655</v>
+        <v>4561</v>
       </c>
       <c r="AH17" s="15">
-        <v>7837</v>
+        <v>6498</v>
       </c>
       <c r="AI17" s="15">
-        <v>4561</v>
+        <v>7309</v>
       </c>
       <c r="AJ17" s="15">
-        <v>6498</v>
+        <v>5076</v>
       </c>
       <c r="AK17" s="15">
-        <v>7309</v>
+        <v>6740</v>
       </c>
       <c r="AL17" s="15">
-        <v>5076</v>
+        <v>9146</v>
       </c>
       <c r="AM17" s="15">
-        <v>6740</v>
+        <v>9549</v>
       </c>
       <c r="AN17" s="15">
-        <v>9146</v>
+        <v>7781</v>
       </c>
       <c r="AO17" s="15">
-        <v>9549</v>
+        <v>6960</v>
       </c>
       <c r="AP17" s="15">
-        <v>7781</v>
+        <v>6835</v>
       </c>
       <c r="AQ17" s="15">
-        <v>6960</v>
+        <v>5771</v>
       </c>
       <c r="AR17" s="15">
-        <v>6835</v>
+        <v>6520</v>
       </c>
       <c r="AS17" s="15">
-        <v>5771</v>
-      </c>
-      <c r="AT17" s="15">
-        <v>6520</v>
-      </c>
-      <c r="AU17" s="15">
         <v>5312</v>
+      </c>
+      <c r="AT17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU17" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AV17" s="15" t="s">
         <v>60</v>
@@ -2579,32 +2579,32 @@
       <c r="AS18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AT18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU18" s="17" t="s">
-        <v>60</v>
+      <c r="AT18" s="17">
+        <v>7523</v>
+      </c>
+      <c r="AU18" s="17">
+        <v>8275</v>
       </c>
       <c r="AV18" s="17">
-        <v>7523</v>
+        <v>7665</v>
       </c>
       <c r="AW18" s="17">
-        <v>8275</v>
+        <v>7643</v>
       </c>
       <c r="AX18" s="17">
-        <v>7665</v>
+        <v>6556</v>
       </c>
       <c r="AY18" s="17">
-        <v>7643</v>
+        <v>7595</v>
       </c>
       <c r="AZ18" s="17">
-        <v>6369</v>
+        <v>9427</v>
       </c>
       <c r="BA18" s="17">
-        <v>7595</v>
+        <v>10390</v>
       </c>
       <c r="BB18" s="17">
-        <v>9427</v>
+        <v>9881</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2741,29 +2741,29 @@
       <c r="AT19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AU19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW19" s="15" t="s">
-        <v>60</v>
+      <c r="AU19" s="15">
+        <v>58219</v>
+      </c>
+      <c r="AV19" s="15">
+        <v>59089</v>
+      </c>
+      <c r="AW19" s="15">
+        <v>58356</v>
       </c>
       <c r="AX19" s="15">
-        <v>59089</v>
+        <v>54901</v>
       </c>
       <c r="AY19" s="15">
-        <v>58356</v>
+        <v>59197</v>
       </c>
       <c r="AZ19" s="15">
-        <v>54116</v>
+        <v>56927</v>
       </c>
       <c r="BA19" s="15">
-        <v>59197</v>
+        <v>57966</v>
       </c>
       <c r="BB19" s="15">
-        <v>56927</v>
+        <v>55168</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2900,29 +2900,29 @@
       <c r="AT20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AU20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW20" s="17" t="s">
-        <v>60</v>
+      <c r="AU20" s="17">
+        <v>8249</v>
+      </c>
+      <c r="AV20" s="17">
+        <v>8365</v>
+      </c>
+      <c r="AW20" s="17">
+        <v>8685</v>
       </c>
       <c r="AX20" s="17">
-        <v>8365</v>
+        <v>8303</v>
       </c>
       <c r="AY20" s="17">
-        <v>8685</v>
+        <v>8629</v>
       </c>
       <c r="AZ20" s="17">
-        <v>8303</v>
+        <v>8238</v>
       </c>
       <c r="BA20" s="17">
-        <v>8629</v>
+        <v>8125</v>
       </c>
       <c r="BB20" s="17">
-        <v>8238</v>
+        <v>7923</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -2992,94 +2992,94 @@
         <v>0</v>
       </c>
       <c r="Y21" s="11">
-        <v>0</v>
+        <v>83253</v>
       </c>
       <c r="Z21" s="11">
-        <v>0</v>
+        <v>86560</v>
       </c>
       <c r="AA21" s="11">
-        <v>83253</v>
+        <v>147301</v>
       </c>
       <c r="AB21" s="11">
-        <v>86560</v>
+        <v>72281</v>
       </c>
       <c r="AC21" s="11">
-        <v>147301</v>
+        <v>75401</v>
       </c>
       <c r="AD21" s="11">
-        <v>72281</v>
+        <v>55621</v>
       </c>
       <c r="AE21" s="11">
-        <v>75401</v>
+        <v>83193</v>
       </c>
       <c r="AF21" s="11">
-        <v>55621</v>
+        <v>91348</v>
       </c>
       <c r="AG21" s="11">
-        <v>83193</v>
+        <v>75646</v>
       </c>
       <c r="AH21" s="11">
-        <v>91348</v>
+        <v>84072</v>
       </c>
       <c r="AI21" s="11">
-        <v>75646</v>
+        <v>69387</v>
       </c>
       <c r="AJ21" s="11">
-        <v>84072</v>
+        <v>37992</v>
       </c>
       <c r="AK21" s="11">
-        <v>69387</v>
+        <v>91434</v>
       </c>
       <c r="AL21" s="11">
-        <v>37992</v>
+        <v>89659</v>
       </c>
       <c r="AM21" s="11">
-        <v>91434</v>
+        <v>96641</v>
       </c>
       <c r="AN21" s="11">
-        <v>89659</v>
+        <v>89682</v>
       </c>
       <c r="AO21" s="11">
-        <v>96641</v>
+        <v>83479</v>
       </c>
       <c r="AP21" s="11">
-        <v>89682</v>
+        <v>87740</v>
       </c>
       <c r="AQ21" s="11">
-        <v>83479</v>
+        <v>86344</v>
       </c>
       <c r="AR21" s="11">
-        <v>87740</v>
+        <v>90453</v>
       </c>
       <c r="AS21" s="11">
-        <v>86344</v>
+        <v>75057</v>
       </c>
       <c r="AT21" s="11">
-        <v>90453</v>
+        <v>73648</v>
       </c>
       <c r="AU21" s="11">
-        <v>75057</v>
+        <v>88624</v>
       </c>
       <c r="AV21" s="11">
-        <v>74054</v>
+        <v>89670</v>
       </c>
       <c r="AW21" s="11">
-        <v>89043</v>
+        <v>89404</v>
       </c>
       <c r="AX21" s="11">
-        <v>89670</v>
+        <v>85520</v>
       </c>
       <c r="AY21" s="11">
-        <v>89404</v>
+        <v>90197</v>
       </c>
       <c r="AZ21" s="11">
-        <v>82287</v>
+        <v>92560</v>
       </c>
       <c r="BA21" s="11">
-        <v>90197</v>
+        <v>96893</v>
       </c>
       <c r="BB21" s="11">
-        <v>92560</v>
+        <v>93297</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3205,11 +3205,11 @@
       <c r="X23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>60</v>
+      <c r="Y23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>0</v>
       </c>
       <c r="AA23" s="11">
         <v>0</v>
@@ -3363,94 +3363,94 @@
         <v>0</v>
       </c>
       <c r="Y24" s="19">
-        <v>0</v>
+        <v>83253</v>
       </c>
       <c r="Z24" s="19">
-        <v>0</v>
+        <v>86560</v>
       </c>
       <c r="AA24" s="19">
-        <v>83253</v>
+        <v>147301</v>
       </c>
       <c r="AB24" s="19">
-        <v>86560</v>
+        <v>72281</v>
       </c>
       <c r="AC24" s="19">
-        <v>147301</v>
+        <v>75401</v>
       </c>
       <c r="AD24" s="19">
-        <v>72281</v>
+        <v>55621</v>
       </c>
       <c r="AE24" s="19">
-        <v>75401</v>
+        <v>83193</v>
       </c>
       <c r="AF24" s="19">
-        <v>55621</v>
+        <v>91348</v>
       </c>
       <c r="AG24" s="19">
-        <v>83193</v>
+        <v>75646</v>
       </c>
       <c r="AH24" s="19">
-        <v>91348</v>
+        <v>84072</v>
       </c>
       <c r="AI24" s="19">
-        <v>75646</v>
+        <v>69387</v>
       </c>
       <c r="AJ24" s="19">
-        <v>84072</v>
+        <v>37992</v>
       </c>
       <c r="AK24" s="19">
-        <v>69387</v>
+        <v>91434</v>
       </c>
       <c r="AL24" s="19">
-        <v>37992</v>
+        <v>89659</v>
       </c>
       <c r="AM24" s="19">
-        <v>91434</v>
+        <v>96641</v>
       </c>
       <c r="AN24" s="19">
-        <v>89659</v>
+        <v>89682</v>
       </c>
       <c r="AO24" s="19">
-        <v>96641</v>
+        <v>83479</v>
       </c>
       <c r="AP24" s="19">
-        <v>89682</v>
+        <v>87740</v>
       </c>
       <c r="AQ24" s="19">
-        <v>83479</v>
+        <v>86344</v>
       </c>
       <c r="AR24" s="19">
-        <v>87740</v>
+        <v>90453</v>
       </c>
       <c r="AS24" s="19">
-        <v>86344</v>
+        <v>75057</v>
       </c>
       <c r="AT24" s="19">
-        <v>90453</v>
+        <v>73648</v>
       </c>
       <c r="AU24" s="19">
-        <v>75057</v>
+        <v>88624</v>
       </c>
       <c r="AV24" s="19">
-        <v>74054</v>
+        <v>89670</v>
       </c>
       <c r="AW24" s="19">
-        <v>89043</v>
+        <v>89404</v>
       </c>
       <c r="AX24" s="19">
-        <v>89670</v>
+        <v>85520</v>
       </c>
       <c r="AY24" s="19">
-        <v>89404</v>
+        <v>90197</v>
       </c>
       <c r="AZ24" s="19">
-        <v>82287</v>
+        <v>92560</v>
       </c>
       <c r="BA24" s="19">
-        <v>90197</v>
+        <v>96893</v>
       </c>
       <c r="BB24" s="19">
-        <v>92560</v>
+        <v>93297</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -4169,71 +4169,71 @@
       <c r="X33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y33" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z33" s="15" t="s">
-        <v>60</v>
+      <c r="Y33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>0</v>
       </c>
       <c r="AA33" s="15">
         <v>0</v>
       </c>
       <c r="AB33" s="15">
-        <v>0</v>
+        <v>30922</v>
       </c>
       <c r="AC33" s="15">
         <v>0</v>
       </c>
       <c r="AD33" s="15">
-        <v>30922</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="15">
-        <v>0</v>
+        <v>26952</v>
       </c>
       <c r="AF33" s="15">
         <v>0</v>
       </c>
       <c r="AG33" s="15">
-        <v>26952</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="15">
         <v>0</v>
       </c>
-      <c r="AI33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="15" t="s">
-        <v>60</v>
+      <c r="AI33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK33" s="15">
+        <v>33839</v>
       </c>
       <c r="AL33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AM33" s="15">
-        <v>33839</v>
+      <c r="AM33" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AN33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AO33" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP33" s="15" t="s">
-        <v>60</v>
+      <c r="AO33" s="15">
+        <v>34479</v>
+      </c>
+      <c r="AP33" s="15">
+        <v>0</v>
       </c>
       <c r="AQ33" s="15">
-        <v>34479</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="15">
-        <v>0</v>
+        <v>25321</v>
       </c>
       <c r="AS33" s="15">
         <v>0</v>
       </c>
       <c r="AT33" s="15">
-        <v>25321</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="15" t="s">
         <v>60</v>
@@ -4241,8 +4241,8 @@
       <c r="AV33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AW33" s="15">
-        <v>0</v>
+      <c r="AW33" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AX33" s="15" t="s">
         <v>60</v>
@@ -4328,80 +4328,80 @@
       <c r="X34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z34" s="17" t="s">
-        <v>60</v>
+      <c r="Y34" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="17">
+        <v>98426</v>
       </c>
       <c r="AA34" s="17">
-        <v>0</v>
+        <v>50639</v>
       </c>
       <c r="AB34" s="17">
-        <v>98426</v>
+        <v>82052</v>
       </c>
       <c r="AC34" s="17">
-        <v>50639</v>
+        <v>92633</v>
       </c>
       <c r="AD34" s="17">
-        <v>82052</v>
+        <v>16784</v>
       </c>
       <c r="AE34" s="17">
-        <v>92633</v>
+        <v>93679</v>
       </c>
       <c r="AF34" s="17">
-        <v>16784</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="17">
-        <v>93679</v>
+        <v>123233</v>
       </c>
       <c r="AH34" s="17">
-        <v>0</v>
+        <v>45037</v>
       </c>
       <c r="AI34" s="17">
-        <v>123233</v>
+        <v>41466</v>
       </c>
       <c r="AJ34" s="17">
-        <v>45037</v>
+        <v>34491</v>
       </c>
       <c r="AK34" s="17">
-        <v>41466</v>
-      </c>
-      <c r="AL34" s="17">
-        <v>34491</v>
+        <v>75496</v>
+      </c>
+      <c r="AL34" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AM34" s="17">
-        <v>75496</v>
+        <v>118362</v>
       </c>
       <c r="AN34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AO34" s="17">
-        <v>118362</v>
-      </c>
-      <c r="AP34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ34" s="17" t="s">
-        <v>60</v>
+      <c r="AO34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP34" s="17">
+        <v>75828</v>
+      </c>
+      <c r="AQ34" s="17">
+        <v>68266</v>
       </c>
       <c r="AR34" s="17">
-        <v>75828</v>
+        <v>104780</v>
       </c>
       <c r="AS34" s="17">
-        <v>68266</v>
+        <v>14414</v>
       </c>
       <c r="AT34" s="17">
-        <v>104780</v>
-      </c>
-      <c r="AU34" s="17">
-        <v>14414</v>
-      </c>
-      <c r="AV34" s="17">
         <v>58176</v>
       </c>
-      <c r="AW34" s="17">
-        <v>49097</v>
+      <c r="AU34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW34" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AX34" s="17" t="s">
         <v>60</v>
@@ -4487,95 +4487,95 @@
       <c r="X35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y35" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z35" s="15" t="s">
-        <v>60</v>
+      <c r="Y35" s="15">
+        <v>3943</v>
+      </c>
+      <c r="Z35" s="15">
+        <v>6492</v>
       </c>
       <c r="AA35" s="15">
-        <v>3943</v>
+        <v>7232</v>
       </c>
       <c r="AB35" s="15">
-        <v>6492</v>
+        <v>14510</v>
       </c>
       <c r="AC35" s="15">
-        <v>7232</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="15">
-        <v>14510</v>
+        <v>4782</v>
       </c>
       <c r="AE35" s="15">
-        <v>0</v>
+        <v>7435</v>
       </c>
       <c r="AF35" s="15">
-        <v>4782</v>
+        <v>13947</v>
       </c>
       <c r="AG35" s="15">
-        <v>7435</v>
+        <v>590</v>
       </c>
       <c r="AH35" s="15">
-        <v>13947</v>
+        <v>29858</v>
       </c>
       <c r="AI35" s="15">
-        <v>590</v>
+        <v>13613</v>
       </c>
       <c r="AJ35" s="15">
-        <v>29858</v>
+        <v>3832</v>
       </c>
       <c r="AK35" s="15">
-        <v>13613</v>
-      </c>
-      <c r="AL35" s="15">
-        <v>3832</v>
-      </c>
-      <c r="AM35" s="15">
         <v>17862</v>
       </c>
-      <c r="AN35" s="15" t="s">
-        <v>60</v>
+      <c r="AL35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN35" s="15">
+        <v>25481</v>
       </c>
       <c r="AO35" s="15" t="s">
         <v>60</v>
       </c>
       <c r="AP35" s="15">
-        <v>25481</v>
-      </c>
-      <c r="AQ35" s="15" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="15">
+        <v>23252</v>
       </c>
       <c r="AR35" s="15">
         <v>0</v>
       </c>
       <c r="AS35" s="15">
-        <v>23252</v>
-      </c>
-      <c r="AT35" s="15" t="s">
-        <v>60</v>
+        <v>12868</v>
+      </c>
+      <c r="AT35" s="15">
+        <v>0</v>
       </c>
       <c r="AU35" s="15">
-        <v>12868</v>
-      </c>
-      <c r="AV35" s="15" t="s">
-        <v>60</v>
+        <v>12855</v>
+      </c>
+      <c r="AV35" s="15">
+        <v>12866</v>
       </c>
       <c r="AW35" s="15">
-        <v>12855</v>
+        <v>12861</v>
       </c>
       <c r="AX35" s="15">
-        <v>12866</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="15">
-        <v>12861</v>
+        <v>12807</v>
       </c>
       <c r="AZ35" s="15">
-        <v>0</v>
+        <v>6574</v>
       </c>
       <c r="BA35" s="15">
-        <v>12807</v>
+        <v>7779</v>
       </c>
       <c r="BB35" s="15">
-        <v>6573</v>
+        <v>12407</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4646,95 +4646,95 @@
       <c r="X36" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z36" s="17" t="s">
-        <v>60</v>
+      <c r="Y36" s="17">
+        <v>2628</v>
+      </c>
+      <c r="Z36" s="17">
+        <v>3235</v>
       </c>
       <c r="AA36" s="17">
-        <v>2628</v>
+        <v>4914</v>
       </c>
       <c r="AB36" s="17">
-        <v>3235</v>
+        <v>9869</v>
       </c>
       <c r="AC36" s="17">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="17">
-        <v>9869</v>
+        <v>4803</v>
       </c>
       <c r="AE36" s="17">
-        <v>0</v>
+        <v>7253</v>
       </c>
       <c r="AF36" s="17">
-        <v>4803</v>
+        <v>12632</v>
       </c>
       <c r="AG36" s="17">
-        <v>7253</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="17">
-        <v>12632</v>
+        <v>23570</v>
       </c>
       <c r="AI36" s="17">
-        <v>0</v>
+        <v>7807</v>
       </c>
       <c r="AJ36" s="17">
-        <v>23570</v>
+        <v>2728</v>
       </c>
       <c r="AK36" s="17">
-        <v>7807</v>
-      </c>
-      <c r="AL36" s="17">
-        <v>2728</v>
-      </c>
-      <c r="AM36" s="17">
         <v>14000</v>
       </c>
-      <c r="AN36" s="17" t="s">
-        <v>60</v>
+      <c r="AL36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN36" s="17">
+        <v>18733</v>
       </c>
       <c r="AO36" s="17" t="s">
         <v>60</v>
       </c>
       <c r="AP36" s="17">
-        <v>18733</v>
-      </c>
-      <c r="AQ36" s="17" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="17">
+        <v>17423</v>
       </c>
       <c r="AR36" s="17">
         <v>0</v>
       </c>
       <c r="AS36" s="17">
-        <v>17423</v>
-      </c>
-      <c r="AT36" s="17" t="s">
-        <v>60</v>
+        <v>7557</v>
+      </c>
+      <c r="AT36" s="17">
+        <v>0</v>
       </c>
       <c r="AU36" s="17">
-        <v>7557</v>
-      </c>
-      <c r="AV36" s="17" t="s">
-        <v>60</v>
+        <v>7523</v>
+      </c>
+      <c r="AV36" s="17">
+        <v>7504</v>
       </c>
       <c r="AW36" s="17">
-        <v>7523</v>
+        <v>7515</v>
       </c>
       <c r="AX36" s="17">
-        <v>7504</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="17">
-        <v>7515</v>
+        <v>7480</v>
       </c>
       <c r="AZ36" s="17">
-        <v>0</v>
+        <v>2821</v>
       </c>
       <c r="BA36" s="17">
-        <v>7480</v>
+        <v>12362</v>
       </c>
       <c r="BB36" s="17">
-        <v>2821</v>
+        <v>14626</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4805,20 +4805,20 @@
       <c r="X37" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y37" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z37" s="15" t="s">
-        <v>60</v>
+      <c r="Y37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>0</v>
       </c>
       <c r="AA37" s="15">
-        <v>0</v>
+        <v>25688</v>
       </c>
       <c r="AB37" s="15">
         <v>0</v>
       </c>
       <c r="AC37" s="15">
-        <v>25688</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="15">
         <v>0</v>
@@ -4827,49 +4827,49 @@
         <v>0</v>
       </c>
       <c r="AF37" s="15">
-        <v>0</v>
+        <v>20111</v>
       </c>
       <c r="AG37" s="15">
         <v>0</v>
       </c>
       <c r="AH37" s="15">
-        <v>20111</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="15">
-        <v>0</v>
+        <v>13566</v>
       </c>
       <c r="AJ37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="15">
-        <v>13566</v>
+        <v>8835</v>
+      </c>
+      <c r="AK37" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AL37" s="15">
-        <v>8835</v>
+        <v>22028</v>
       </c>
       <c r="AM37" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AN37" s="15">
-        <v>22028</v>
-      </c>
-      <c r="AO37" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP37" s="15" t="s">
-        <v>60</v>
+      <c r="AN37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO37" s="15">
+        <v>25107</v>
+      </c>
+      <c r="AP37" s="15">
+        <v>0</v>
       </c>
       <c r="AQ37" s="15">
-        <v>25107</v>
+        <v>9980</v>
       </c>
       <c r="AR37" s="15">
-        <v>0</v>
+        <v>10038</v>
       </c>
       <c r="AS37" s="15">
-        <v>9980</v>
-      </c>
-      <c r="AT37" s="15">
-        <v>10039</v>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AU37" s="15" t="s">
         <v>60</v>
@@ -5027,32 +5027,32 @@
       <c r="AS38" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AT38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU38" s="17" t="s">
-        <v>60</v>
+      <c r="AT38" s="17">
+        <v>9896</v>
+      </c>
+      <c r="AU38" s="17">
+        <v>10097</v>
       </c>
       <c r="AV38" s="17">
-        <v>9896</v>
+        <v>10228</v>
       </c>
       <c r="AW38" s="17">
-        <v>10097</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="17">
-        <v>10228</v>
+        <v>9266</v>
       </c>
       <c r="AY38" s="17">
         <v>0</v>
       </c>
       <c r="AZ38" s="17">
-        <v>9266</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="17">
-        <v>0</v>
+        <v>20112</v>
       </c>
       <c r="BB38" s="17">
-        <v>0</v>
+        <v>17189</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5189,29 +5189,29 @@
       <c r="AT39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AU39" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV39" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW39" s="15" t="s">
-        <v>60</v>
+      <c r="AU39" s="15">
+        <v>49096</v>
+      </c>
+      <c r="AV39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="15">
+        <v>90967</v>
       </c>
       <c r="AX39" s="15">
-        <v>0</v>
+        <v>80174</v>
       </c>
       <c r="AY39" s="15">
-        <v>90967</v>
+        <v>54301</v>
       </c>
       <c r="AZ39" s="15">
-        <v>80174</v>
+        <v>125418</v>
       </c>
       <c r="BA39" s="15">
-        <v>54301</v>
+        <v>21956</v>
       </c>
       <c r="BB39" s="15">
-        <v>125419</v>
+        <v>51273</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5348,29 +5348,29 @@
       <c r="AT40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AU40" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV40" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW40" s="17" t="s">
-        <v>60</v>
+      <c r="AU40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="17">
+        <v>32002</v>
+      </c>
+      <c r="AW40" s="17">
+        <v>0</v>
       </c>
       <c r="AX40" s="17">
-        <v>32002</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="17">
         <v>0</v>
       </c>
       <c r="AZ40" s="17">
-        <v>0</v>
+        <v>28010</v>
       </c>
       <c r="BA40" s="17">
         <v>0</v>
       </c>
       <c r="BB40" s="17">
-        <v>28010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5440,94 +5440,94 @@
         <v>0</v>
       </c>
       <c r="Y41" s="11">
-        <v>0</v>
+        <v>6571</v>
       </c>
       <c r="Z41" s="11">
-        <v>0</v>
+        <v>108153</v>
       </c>
       <c r="AA41" s="11">
-        <v>6571</v>
+        <v>88473</v>
       </c>
       <c r="AB41" s="11">
-        <v>108153</v>
+        <v>137353</v>
       </c>
       <c r="AC41" s="11">
-        <v>88473</v>
+        <v>92633</v>
       </c>
       <c r="AD41" s="11">
-        <v>137353</v>
+        <v>26369</v>
       </c>
       <c r="AE41" s="11">
-        <v>92633</v>
+        <v>135319</v>
       </c>
       <c r="AF41" s="11">
-        <v>26369</v>
+        <v>46690</v>
       </c>
       <c r="AG41" s="11">
-        <v>135319</v>
+        <v>123823</v>
       </c>
       <c r="AH41" s="11">
-        <v>46690</v>
+        <v>98465</v>
       </c>
       <c r="AI41" s="11">
-        <v>123823</v>
+        <v>76452</v>
       </c>
       <c r="AJ41" s="11">
-        <v>98465</v>
+        <v>49886</v>
       </c>
       <c r="AK41" s="11">
-        <v>76452</v>
+        <v>141197</v>
       </c>
       <c r="AL41" s="11">
-        <v>49886</v>
+        <v>22028</v>
       </c>
       <c r="AM41" s="11">
-        <v>141197</v>
+        <v>118362</v>
       </c>
       <c r="AN41" s="11">
-        <v>22028</v>
+        <v>44214</v>
       </c>
       <c r="AO41" s="11">
-        <v>118362</v>
+        <v>59586</v>
       </c>
       <c r="AP41" s="11">
-        <v>44214</v>
+        <v>75828</v>
       </c>
       <c r="AQ41" s="11">
-        <v>59586</v>
+        <v>118921</v>
       </c>
       <c r="AR41" s="11">
-        <v>75828</v>
+        <v>140139</v>
       </c>
       <c r="AS41" s="11">
-        <v>118921</v>
+        <v>34839</v>
       </c>
       <c r="AT41" s="11">
-        <v>140140</v>
+        <v>68072</v>
       </c>
       <c r="AU41" s="11">
-        <v>34839</v>
+        <v>79571</v>
       </c>
       <c r="AV41" s="11">
-        <v>68072</v>
+        <v>62600</v>
       </c>
       <c r="AW41" s="11">
-        <v>79572</v>
+        <v>111343</v>
       </c>
       <c r="AX41" s="11">
-        <v>62600</v>
+        <v>89440</v>
       </c>
       <c r="AY41" s="11">
-        <v>111343</v>
+        <v>74588</v>
       </c>
       <c r="AZ41" s="11">
-        <v>89440</v>
+        <v>162823</v>
       </c>
       <c r="BA41" s="11">
-        <v>74588</v>
+        <v>62209</v>
       </c>
       <c r="BB41" s="11">
-        <v>162823</v>
+        <v>95495</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5653,11 +5653,11 @@
       <c r="X43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>60</v>
+      <c r="Y43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>0</v>
       </c>
       <c r="AA43" s="11">
         <v>0</v>
@@ -5867,11 +5867,11 @@
       <c r="X45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>60</v>
+      <c r="Y45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>0</v>
       </c>
       <c r="AA45" s="11">
         <v>0</v>
@@ -6025,94 +6025,94 @@
         <v>0</v>
       </c>
       <c r="Y46" s="19">
-        <v>0</v>
+        <v>6571</v>
       </c>
       <c r="Z46" s="19">
-        <v>0</v>
+        <v>108153</v>
       </c>
       <c r="AA46" s="19">
-        <v>6571</v>
+        <v>88473</v>
       </c>
       <c r="AB46" s="19">
-        <v>108153</v>
+        <v>137353</v>
       </c>
       <c r="AC46" s="19">
-        <v>88473</v>
+        <v>92633</v>
       </c>
       <c r="AD46" s="19">
-        <v>137353</v>
+        <v>26369</v>
       </c>
       <c r="AE46" s="19">
-        <v>92633</v>
+        <v>135319</v>
       </c>
       <c r="AF46" s="19">
-        <v>26369</v>
+        <v>46690</v>
       </c>
       <c r="AG46" s="19">
-        <v>135319</v>
+        <v>123823</v>
       </c>
       <c r="AH46" s="19">
-        <v>46690</v>
+        <v>98465</v>
       </c>
       <c r="AI46" s="19">
-        <v>123823</v>
+        <v>76452</v>
       </c>
       <c r="AJ46" s="19">
-        <v>98465</v>
+        <v>49886</v>
       </c>
       <c r="AK46" s="19">
-        <v>76452</v>
+        <v>141197</v>
       </c>
       <c r="AL46" s="19">
-        <v>49886</v>
+        <v>22028</v>
       </c>
       <c r="AM46" s="19">
-        <v>141197</v>
+        <v>118362</v>
       </c>
       <c r="AN46" s="19">
-        <v>22028</v>
+        <v>44214</v>
       </c>
       <c r="AO46" s="19">
-        <v>118362</v>
+        <v>59586</v>
       </c>
       <c r="AP46" s="19">
-        <v>44214</v>
+        <v>75828</v>
       </c>
       <c r="AQ46" s="19">
-        <v>59586</v>
+        <v>118921</v>
       </c>
       <c r="AR46" s="19">
-        <v>75828</v>
+        <v>140139</v>
       </c>
       <c r="AS46" s="19">
-        <v>118921</v>
+        <v>34839</v>
       </c>
       <c r="AT46" s="19">
-        <v>140140</v>
+        <v>68072</v>
       </c>
       <c r="AU46" s="19">
-        <v>34839</v>
+        <v>79571</v>
       </c>
       <c r="AV46" s="19">
-        <v>68072</v>
+        <v>62600</v>
       </c>
       <c r="AW46" s="19">
-        <v>79572</v>
+        <v>111343</v>
       </c>
       <c r="AX46" s="19">
-        <v>62600</v>
+        <v>89440</v>
       </c>
       <c r="AY46" s="19">
-        <v>111343</v>
+        <v>74588</v>
       </c>
       <c r="AZ46" s="19">
-        <v>89440</v>
+        <v>162823</v>
       </c>
       <c r="BA46" s="19">
-        <v>74588</v>
+        <v>62209</v>
       </c>
       <c r="BB46" s="19">
-        <v>162823</v>
+        <v>95495</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6831,32 +6831,32 @@
       <c r="X55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z55" s="15" t="s">
-        <v>60</v>
+      <c r="Y55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="15">
+        <v>0</v>
       </c>
       <c r="AA55" s="15">
         <v>0</v>
       </c>
       <c r="AB55" s="15">
-        <v>0</v>
+        <v>404657</v>
       </c>
       <c r="AC55" s="15">
         <v>0</v>
       </c>
       <c r="AD55" s="15">
-        <v>404657</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="15">
-        <v>0</v>
+        <v>595181</v>
       </c>
       <c r="AF55" s="15">
         <v>0</v>
       </c>
       <c r="AG55" s="15">
-        <v>595181</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="15">
         <v>0</v>
@@ -6868,43 +6868,43 @@
         <v>0</v>
       </c>
       <c r="AK55" s="15">
-        <v>0</v>
+        <v>1068033</v>
       </c>
       <c r="AL55" s="15">
         <v>0</v>
       </c>
       <c r="AM55" s="15">
-        <v>1068033</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="15">
         <v>0</v>
       </c>
       <c r="AO55" s="15">
-        <v>0</v>
+        <v>1498293</v>
       </c>
       <c r="AP55" s="15">
         <v>0</v>
       </c>
       <c r="AQ55" s="15">
-        <v>1498293</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="15">
-        <v>0</v>
+        <v>1696035</v>
       </c>
       <c r="AS55" s="15">
         <v>0</v>
       </c>
       <c r="AT55" s="15">
-        <v>1697095</v>
-      </c>
-      <c r="AU55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW55" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW55" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AX55" s="15" t="s">
         <v>60</v>
@@ -6990,80 +6990,80 @@
       <c r="X56" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y56" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z56" s="17" t="s">
-        <v>60</v>
+      <c r="Y56" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="17">
+        <v>3240255</v>
       </c>
       <c r="AA56" s="17">
-        <v>0</v>
+        <v>2063336</v>
       </c>
       <c r="AB56" s="17">
-        <v>3240255</v>
+        <v>3971669</v>
       </c>
       <c r="AC56" s="17">
-        <v>2063336</v>
+        <v>5743178</v>
       </c>
       <c r="AD56" s="17">
-        <v>3971669</v>
+        <v>1166994</v>
       </c>
       <c r="AE56" s="17">
-        <v>5743178</v>
+        <v>7344131</v>
       </c>
       <c r="AF56" s="17">
-        <v>1166994</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="17">
-        <v>7344131</v>
+        <v>8976512</v>
       </c>
       <c r="AH56" s="17">
-        <v>0</v>
+        <v>3147594</v>
       </c>
       <c r="AI56" s="17">
-        <v>8976512</v>
+        <v>2824940</v>
       </c>
       <c r="AJ56" s="17">
-        <v>3147594</v>
+        <v>2378190</v>
       </c>
       <c r="AK56" s="17">
-        <v>2824940</v>
+        <v>5585101</v>
       </c>
       <c r="AL56" s="17">
-        <v>2378190</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="17">
-        <v>5585101</v>
+        <v>10066130</v>
       </c>
       <c r="AN56" s="17">
         <v>0</v>
       </c>
       <c r="AO56" s="17">
-        <v>10066130</v>
+        <v>0</v>
       </c>
       <c r="AP56" s="17">
-        <v>0</v>
+        <v>6397029</v>
       </c>
       <c r="AQ56" s="17">
-        <v>0</v>
+        <v>4918158</v>
       </c>
       <c r="AR56" s="17">
-        <v>6397029</v>
+        <v>8956508</v>
       </c>
       <c r="AS56" s="17">
-        <v>4918158</v>
+        <v>1052621</v>
       </c>
       <c r="AT56" s="17">
-        <v>8893601</v>
-      </c>
-      <c r="AU56" s="17">
-        <v>1052621</v>
-      </c>
-      <c r="AV56" s="17">
-        <v>5248817</v>
-      </c>
-      <c r="AW56" s="17">
-        <v>4160804</v>
+        <v>5322638</v>
+      </c>
+      <c r="AU56" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV56" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW56" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AX56" s="17" t="s">
         <v>60</v>
@@ -7149,95 +7149,95 @@
       <c r="X57" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y57" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z57" s="15" t="s">
-        <v>60</v>
+      <c r="Y57" s="15">
+        <v>186772</v>
+      </c>
+      <c r="Z57" s="15">
+        <v>330008</v>
       </c>
       <c r="AA57" s="15">
-        <v>186772</v>
+        <v>394392</v>
       </c>
       <c r="AB57" s="15">
-        <v>330008</v>
+        <v>967446</v>
       </c>
       <c r="AC57" s="15">
-        <v>394392</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="15">
-        <v>967446</v>
+        <v>456453</v>
       </c>
       <c r="AE57" s="15">
-        <v>0</v>
+        <v>694650</v>
       </c>
       <c r="AF57" s="15">
-        <v>456453</v>
+        <v>1355781</v>
       </c>
       <c r="AG57" s="15">
-        <v>694650</v>
+        <v>39790</v>
       </c>
       <c r="AH57" s="15">
-        <v>1355781</v>
+        <v>2372504</v>
       </c>
       <c r="AI57" s="15">
-        <v>39790</v>
+        <v>1229996</v>
       </c>
       <c r="AJ57" s="15">
-        <v>2372504</v>
+        <v>269800</v>
       </c>
       <c r="AK57" s="15">
-        <v>1229996</v>
+        <v>2337265</v>
       </c>
       <c r="AL57" s="15">
-        <v>269800</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="15">
-        <v>2337265</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="15">
-        <v>0</v>
+        <v>4558120</v>
       </c>
       <c r="AO57" s="15">
         <v>0</v>
       </c>
       <c r="AP57" s="15">
-        <v>4558120</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="15">
-        <v>0</v>
+        <v>3939798</v>
       </c>
       <c r="AR57" s="15">
         <v>0</v>
       </c>
       <c r="AS57" s="15">
-        <v>3939798</v>
+        <v>2620806</v>
       </c>
       <c r="AT57" s="15">
         <v>0</v>
       </c>
       <c r="AU57" s="15">
-        <v>2620806</v>
+        <v>2335451</v>
       </c>
       <c r="AV57" s="15">
-        <v>0</v>
+        <v>2143264</v>
       </c>
       <c r="AW57" s="15">
-        <v>2335451</v>
+        <v>1683060</v>
       </c>
       <c r="AX57" s="15">
-        <v>1989709</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="15">
-        <v>1881074</v>
+        <v>1728017</v>
       </c>
       <c r="AZ57" s="15">
-        <v>0</v>
+        <v>780262</v>
       </c>
       <c r="BA57" s="15">
-        <v>1728017</v>
+        <v>1040154</v>
       </c>
       <c r="BB57" s="15">
-        <v>780262</v>
+        <v>1850997</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7308,95 +7308,95 @@
       <c r="X58" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y58" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z58" s="17" t="s">
-        <v>60</v>
+      <c r="Y58" s="17">
+        <v>133866</v>
+      </c>
+      <c r="Z58" s="17">
+        <v>177817</v>
       </c>
       <c r="AA58" s="17">
-        <v>133866</v>
+        <v>283570</v>
       </c>
       <c r="AB58" s="17">
-        <v>177817</v>
+        <v>669413</v>
       </c>
       <c r="AC58" s="17">
-        <v>283570</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="17">
-        <v>669413</v>
+        <v>446232</v>
       </c>
       <c r="AE58" s="17">
-        <v>0</v>
+        <v>659080</v>
       </c>
       <c r="AF58" s="17">
-        <v>446232</v>
+        <v>1284571</v>
       </c>
       <c r="AG58" s="17">
-        <v>659080</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="17">
-        <v>1284571</v>
+        <v>2036645</v>
       </c>
       <c r="AI58" s="17">
-        <v>0</v>
+        <v>737101</v>
       </c>
       <c r="AJ58" s="17">
-        <v>2036645</v>
+        <v>194900</v>
       </c>
       <c r="AK58" s="17">
-        <v>737101</v>
+        <v>1831650</v>
       </c>
       <c r="AL58" s="17">
-        <v>194900</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="17">
-        <v>1831650</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="17">
-        <v>0</v>
+        <v>3365759</v>
       </c>
       <c r="AO58" s="17">
         <v>0</v>
       </c>
       <c r="AP58" s="17">
-        <v>3365759</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="17">
-        <v>0</v>
+        <v>3082401</v>
       </c>
       <c r="AR58" s="17">
         <v>0</v>
       </c>
       <c r="AS58" s="17">
-        <v>3082401</v>
+        <v>1502760</v>
       </c>
       <c r="AT58" s="17">
         <v>0</v>
       </c>
       <c r="AU58" s="17">
-        <v>1502760</v>
+        <v>1348376</v>
       </c>
       <c r="AV58" s="17">
-        <v>0</v>
+        <v>1250067</v>
       </c>
       <c r="AW58" s="17">
-        <v>1348376</v>
+        <v>1003505</v>
       </c>
       <c r="AX58" s="17">
-        <v>1160506</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="17">
-        <v>1099061</v>
+        <v>1049053</v>
       </c>
       <c r="AZ58" s="17">
-        <v>0</v>
+        <v>357849</v>
       </c>
       <c r="BA58" s="17">
-        <v>1049053</v>
+        <v>1652914</v>
       </c>
       <c r="BB58" s="17">
-        <v>357849</v>
+        <v>2215959</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7467,20 +7467,20 @@
       <c r="X59" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y59" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z59" s="15" t="s">
-        <v>60</v>
+      <c r="Y59" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="15">
+        <v>0</v>
       </c>
       <c r="AA59" s="15">
-        <v>0</v>
+        <v>1607026</v>
       </c>
       <c r="AB59" s="15">
         <v>0</v>
       </c>
       <c r="AC59" s="15">
-        <v>1607026</v>
+        <v>0</v>
       </c>
       <c r="AD59" s="15">
         <v>0</v>
@@ -7489,52 +7489,52 @@
         <v>0</v>
       </c>
       <c r="AF59" s="15">
-        <v>0</v>
+        <v>1942872</v>
       </c>
       <c r="AG59" s="15">
         <v>0</v>
       </c>
       <c r="AH59" s="15">
-        <v>1942872</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="15">
-        <v>0</v>
+        <v>1445204</v>
       </c>
       <c r="AJ59" s="15">
-        <v>0</v>
+        <v>960000</v>
       </c>
       <c r="AK59" s="15">
-        <v>1445204</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="15">
-        <v>960000</v>
+        <v>2746187</v>
       </c>
       <c r="AM59" s="15">
         <v>0</v>
       </c>
       <c r="AN59" s="15">
-        <v>2746187</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="15">
-        <v>0</v>
+        <v>4000557</v>
       </c>
       <c r="AP59" s="15">
         <v>0</v>
       </c>
       <c r="AQ59" s="15">
-        <v>4000557</v>
+        <v>1544237</v>
       </c>
       <c r="AR59" s="15">
-        <v>0</v>
+        <v>1815541</v>
       </c>
       <c r="AS59" s="15">
-        <v>1544237</v>
-      </c>
-      <c r="AT59" s="15">
-        <v>1760226</v>
-      </c>
-      <c r="AU59" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU59" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AV59" s="15" t="s">
         <v>60</v>
@@ -7689,32 +7689,32 @@
       <c r="AS60" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AT60" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU60" s="17" t="s">
-        <v>60</v>
+      <c r="AT60" s="17">
+        <v>2084294</v>
+      </c>
+      <c r="AU60" s="17">
+        <v>1908254</v>
       </c>
       <c r="AV60" s="17">
-        <v>1990194</v>
+        <v>1808468</v>
       </c>
       <c r="AW60" s="17">
-        <v>1935844</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="17">
-        <v>1784091</v>
+        <v>1274103</v>
       </c>
       <c r="AY60" s="17">
         <v>0</v>
       </c>
       <c r="AZ60" s="17">
-        <v>1406555</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="17">
-        <v>0</v>
+        <v>3137913</v>
       </c>
       <c r="BB60" s="17">
-        <v>0</v>
+        <v>2461909</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7851,29 +7851,29 @@
       <c r="AT61" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AU61" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV61" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW61" s="15" t="s">
-        <v>60</v>
+      <c r="AU61" s="15">
+        <v>4104271</v>
+      </c>
+      <c r="AV61" s="15">
+        <v>-56</v>
+      </c>
+      <c r="AW61" s="15">
+        <v>6787444</v>
       </c>
       <c r="AX61" s="15">
-        <v>0</v>
+        <v>5408878</v>
       </c>
       <c r="AY61" s="15">
-        <v>6787492</v>
+        <v>4009525</v>
       </c>
       <c r="AZ61" s="15">
-        <v>5582676</v>
+        <v>10740474</v>
       </c>
       <c r="BA61" s="15">
-        <v>4009525</v>
+        <v>1543023</v>
       </c>
       <c r="BB61" s="15">
-        <v>10792366</v>
+        <v>4165958</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8010,29 +8010,29 @@
       <c r="AT62" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AU62" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV62" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW62" s="17" t="s">
-        <v>60</v>
+      <c r="AU62" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV62" s="17">
+        <v>3200463</v>
+      </c>
+      <c r="AW62" s="17">
+        <v>0</v>
       </c>
       <c r="AX62" s="17">
-        <v>3200463</v>
+        <v>-166</v>
       </c>
       <c r="AY62" s="17">
         <v>0</v>
       </c>
       <c r="AZ62" s="17">
-        <v>0</v>
+        <v>630300</v>
       </c>
       <c r="BA62" s="17">
         <v>0</v>
       </c>
       <c r="BB62" s="17">
-        <v>630300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8102,94 +8102,94 @@
         <v>0</v>
       </c>
       <c r="Y63" s="11">
-        <v>0</v>
+        <v>320638</v>
       </c>
       <c r="Z63" s="11">
-        <v>0</v>
+        <v>3748080</v>
       </c>
       <c r="AA63" s="11">
-        <v>320638</v>
+        <v>4348324</v>
       </c>
       <c r="AB63" s="11">
-        <v>3748080</v>
+        <v>6013185</v>
       </c>
       <c r="AC63" s="11">
-        <v>4348324</v>
+        <v>5743178</v>
       </c>
       <c r="AD63" s="11">
-        <v>6013185</v>
+        <v>2069679</v>
       </c>
       <c r="AE63" s="11">
-        <v>5743178</v>
+        <v>9293042</v>
       </c>
       <c r="AF63" s="11">
-        <v>2069679</v>
+        <v>4583224</v>
       </c>
       <c r="AG63" s="11">
-        <v>9293042</v>
+        <v>9016302</v>
       </c>
       <c r="AH63" s="11">
-        <v>4583224</v>
+        <v>7556743</v>
       </c>
       <c r="AI63" s="11">
-        <v>9016302</v>
+        <v>6237241</v>
       </c>
       <c r="AJ63" s="11">
-        <v>7556743</v>
+        <v>3802890</v>
       </c>
       <c r="AK63" s="11">
-        <v>6237241</v>
+        <v>10822049</v>
       </c>
       <c r="AL63" s="11">
-        <v>3802890</v>
+        <v>2746187</v>
       </c>
       <c r="AM63" s="11">
-        <v>10822049</v>
+        <v>10066130</v>
       </c>
       <c r="AN63" s="11">
-        <v>2746187</v>
+        <v>7923879</v>
       </c>
       <c r="AO63" s="11">
-        <v>10066130</v>
+        <v>5498850</v>
       </c>
       <c r="AP63" s="11">
-        <v>7923879</v>
+        <v>6397029</v>
       </c>
       <c r="AQ63" s="11">
-        <v>5498850</v>
+        <v>13484594</v>
       </c>
       <c r="AR63" s="11">
-        <v>6397029</v>
+        <v>12468084</v>
       </c>
       <c r="AS63" s="11">
-        <v>13484594</v>
+        <v>5176187</v>
       </c>
       <c r="AT63" s="11">
-        <v>12350922</v>
+        <v>7406932</v>
       </c>
       <c r="AU63" s="11">
-        <v>5176187</v>
+        <v>9696353</v>
       </c>
       <c r="AV63" s="11">
-        <v>7239011</v>
+        <v>8402206</v>
       </c>
       <c r="AW63" s="11">
-        <v>9780475</v>
+        <v>9474009</v>
       </c>
       <c r="AX63" s="11">
-        <v>8134769</v>
+        <v>6682815</v>
       </c>
       <c r="AY63" s="11">
-        <v>9767627</v>
+        <v>6786595</v>
       </c>
       <c r="AZ63" s="11">
-        <v>6989231</v>
+        <v>12508885</v>
       </c>
       <c r="BA63" s="11">
-        <v>6786595</v>
+        <v>7374004</v>
       </c>
       <c r="BB63" s="11">
-        <v>12560777</v>
+        <v>10694823</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8317,11 +8317,11 @@
       <c r="X65" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>60</v>
+      <c r="Y65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>0</v>
       </c>
       <c r="AA65" s="11">
         <v>0</v>
@@ -8533,11 +8533,11 @@
       <c r="X67" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z67" s="11" t="s">
-        <v>60</v>
+      <c r="Y67" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="11">
+        <v>0</v>
       </c>
       <c r="AA67" s="11">
         <v>0</v>
@@ -8749,11 +8749,11 @@
       <c r="X69" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y69" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z69" s="15" t="s">
-        <v>60</v>
+      <c r="Y69" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="15">
+        <v>0</v>
       </c>
       <c r="AA69" s="15">
         <v>0</v>
@@ -8907,94 +8907,94 @@
         <v>0</v>
       </c>
       <c r="Y70" s="19">
-        <v>0</v>
+        <v>320638</v>
       </c>
       <c r="Z70" s="19">
-        <v>0</v>
+        <v>3748080</v>
       </c>
       <c r="AA70" s="19">
-        <v>320638</v>
+        <v>4348324</v>
       </c>
       <c r="AB70" s="19">
-        <v>3748080</v>
+        <v>6013185</v>
       </c>
       <c r="AC70" s="19">
-        <v>4348324</v>
+        <v>5743178</v>
       </c>
       <c r="AD70" s="19">
-        <v>6013185</v>
+        <v>2069679</v>
       </c>
       <c r="AE70" s="19">
-        <v>5743178</v>
+        <v>9293042</v>
       </c>
       <c r="AF70" s="19">
-        <v>2069679</v>
+        <v>4583224</v>
       </c>
       <c r="AG70" s="19">
-        <v>9293042</v>
+        <v>9016302</v>
       </c>
       <c r="AH70" s="19">
-        <v>4583224</v>
+        <v>7556743</v>
       </c>
       <c r="AI70" s="19">
-        <v>9016302</v>
+        <v>6237241</v>
       </c>
       <c r="AJ70" s="19">
-        <v>7556743</v>
+        <v>3802890</v>
       </c>
       <c r="AK70" s="19">
-        <v>6237241</v>
+        <v>10822049</v>
       </c>
       <c r="AL70" s="19">
-        <v>3802890</v>
+        <v>2746187</v>
       </c>
       <c r="AM70" s="19">
-        <v>10822049</v>
+        <v>10066130</v>
       </c>
       <c r="AN70" s="19">
-        <v>2746187</v>
+        <v>7923879</v>
       </c>
       <c r="AO70" s="19">
-        <v>10066130</v>
+        <v>5498850</v>
       </c>
       <c r="AP70" s="19">
-        <v>7923879</v>
+        <v>6397029</v>
       </c>
       <c r="AQ70" s="19">
-        <v>5498850</v>
+        <v>13484594</v>
       </c>
       <c r="AR70" s="19">
-        <v>6397029</v>
+        <v>12468084</v>
       </c>
       <c r="AS70" s="19">
-        <v>13484594</v>
+        <v>5176187</v>
       </c>
       <c r="AT70" s="19">
-        <v>12350922</v>
+        <v>7406932</v>
       </c>
       <c r="AU70" s="19">
-        <v>5176187</v>
+        <v>9696353</v>
       </c>
       <c r="AV70" s="19">
-        <v>7239011</v>
+        <v>8402206</v>
       </c>
       <c r="AW70" s="19">
-        <v>9780475</v>
+        <v>9474009</v>
       </c>
       <c r="AX70" s="19">
-        <v>8134769</v>
+        <v>6682815</v>
       </c>
       <c r="AY70" s="19">
-        <v>9767627</v>
+        <v>6786595</v>
       </c>
       <c r="AZ70" s="19">
-        <v>6989231</v>
+        <v>12508885</v>
       </c>
       <c r="BA70" s="19">
-        <v>6786595</v>
+        <v>7374004</v>
       </c>
       <c r="BB70" s="19">
-        <v>12560777</v>
+        <v>10694823</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9508,23 +9508,23 @@
       <c r="AA77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AB77" s="15" t="s">
-        <v>60</v>
+      <c r="AB77" s="15">
+        <v>13086379</v>
       </c>
       <c r="AC77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AD77" s="15">
-        <v>13086379</v>
-      </c>
-      <c r="AE77" s="15" t="s">
-        <v>60</v>
+      <c r="AD77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE77" s="15">
+        <v>22082999</v>
       </c>
       <c r="AF77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG77" s="15">
-        <v>22082999</v>
+      <c r="AG77" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AH77" s="15" t="s">
         <v>60</v>
@@ -9535,35 +9535,35 @@
       <c r="AJ77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AK77" s="15" t="s">
-        <v>60</v>
+      <c r="AK77" s="15">
+        <v>31562192</v>
       </c>
       <c r="AL77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AM77" s="15">
-        <v>31562192</v>
+      <c r="AM77" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AN77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AO77" s="15" t="s">
-        <v>60</v>
+      <c r="AO77" s="15">
+        <v>43455234</v>
       </c>
       <c r="AP77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AQ77" s="15">
-        <v>43455234</v>
-      </c>
-      <c r="AR77" s="15" t="s">
-        <v>60</v>
+      <c r="AQ77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR77" s="15">
+        <v>67011902</v>
       </c>
       <c r="AS77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AT77" s="15">
-        <v>67023222</v>
+      <c r="AT77" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AU77" s="15" t="s">
         <v>60</v>
@@ -9661,77 +9661,77 @@
       <c r="Y78" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Z78" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA78" s="17" t="s">
-        <v>60</v>
+      <c r="Z78" s="17">
+        <v>32920722</v>
+      </c>
+      <c r="AA78" s="17">
+        <v>40745986</v>
       </c>
       <c r="AB78" s="17">
-        <v>32920722</v>
+        <v>48404292</v>
       </c>
       <c r="AC78" s="17">
-        <v>40745986</v>
+        <v>61999266</v>
       </c>
       <c r="AD78" s="17">
-        <v>48404292</v>
+        <v>69530148</v>
       </c>
       <c r="AE78" s="17">
-        <v>61999266</v>
-      </c>
-      <c r="AF78" s="17">
-        <v>69530148</v>
+        <v>78396770</v>
+      </c>
+      <c r="AF78" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AG78" s="17">
-        <v>78396770</v>
-      </c>
-      <c r="AH78" s="17" t="s">
-        <v>60</v>
+        <v>72841788</v>
+      </c>
+      <c r="AH78" s="17">
+        <v>69889069</v>
       </c>
       <c r="AI78" s="17">
-        <v>72841788</v>
+        <v>68126658</v>
       </c>
       <c r="AJ78" s="17">
-        <v>69889069</v>
+        <v>68951031</v>
       </c>
       <c r="AK78" s="17">
-        <v>68126658</v>
-      </c>
-      <c r="AL78" s="17">
-        <v>68951031</v>
+        <v>73978767</v>
+      </c>
+      <c r="AL78" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AM78" s="17">
-        <v>73978767</v>
+        <v>85045285</v>
       </c>
       <c r="AN78" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AO78" s="17">
-        <v>85045285</v>
-      </c>
-      <c r="AP78" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ78" s="17" t="s">
-        <v>60</v>
+      <c r="AO78" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP78" s="17">
+        <v>84362360</v>
+      </c>
+      <c r="AQ78" s="17">
+        <v>72044034</v>
       </c>
       <c r="AR78" s="17">
-        <v>84362360</v>
+        <v>84990395</v>
       </c>
       <c r="AS78" s="17">
-        <v>72044034</v>
+        <v>73027681</v>
       </c>
       <c r="AT78" s="17">
-        <v>84878803</v>
-      </c>
-      <c r="AU78" s="17">
-        <v>73027681</v>
-      </c>
-      <c r="AV78" s="17">
-        <v>90223064</v>
-      </c>
-      <c r="AW78" s="17">
-        <v>84746604</v>
+        <v>91491990</v>
+      </c>
+      <c r="AU78" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV78" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW78" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AX78" s="17" t="s">
         <v>60</v>
@@ -9817,95 +9817,95 @@
       <c r="X79" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y79" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z79" s="15" t="s">
-        <v>60</v>
+      <c r="Y79" s="15">
+        <v>47367994</v>
+      </c>
+      <c r="Z79" s="15">
+        <v>50833025</v>
       </c>
       <c r="AA79" s="15">
-        <v>47367994</v>
+        <v>54534292</v>
       </c>
       <c r="AB79" s="15">
-        <v>50833025</v>
-      </c>
-      <c r="AC79" s="15">
-        <v>54534292</v>
+        <v>66674431</v>
+      </c>
+      <c r="AC79" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AD79" s="15">
-        <v>66674431</v>
-      </c>
-      <c r="AE79" s="15" t="s">
-        <v>60</v>
+        <v>95452321</v>
+      </c>
+      <c r="AE79" s="15">
+        <v>93429724</v>
       </c>
       <c r="AF79" s="15">
-        <v>95452321</v>
+        <v>97209507</v>
       </c>
       <c r="AG79" s="15">
-        <v>93429724</v>
+        <v>67440678</v>
       </c>
       <c r="AH79" s="15">
-        <v>97209507</v>
+        <v>79459575</v>
       </c>
       <c r="AI79" s="15">
-        <v>67440678</v>
+        <v>90354514</v>
       </c>
       <c r="AJ79" s="15">
-        <v>79459575</v>
+        <v>70407098</v>
       </c>
       <c r="AK79" s="15">
-        <v>90354514</v>
-      </c>
-      <c r="AL79" s="15">
-        <v>70407098</v>
-      </c>
-      <c r="AM79" s="15">
         <v>130851248</v>
       </c>
-      <c r="AN79" s="15" t="s">
-        <v>60</v>
+      <c r="AL79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN79" s="15">
+        <v>178883089</v>
       </c>
       <c r="AO79" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP79" s="15">
-        <v>178883089</v>
-      </c>
-      <c r="AQ79" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR79" s="15" t="s">
-        <v>60</v>
+      <c r="AP79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ79" s="15">
+        <v>169439102</v>
+      </c>
+      <c r="AR79" s="15">
+        <v>0</v>
       </c>
       <c r="AS79" s="15">
-        <v>169439102</v>
+        <v>203668480</v>
       </c>
       <c r="AT79" s="15" t="s">
         <v>60</v>
       </c>
       <c r="AU79" s="15">
-        <v>203668480</v>
-      </c>
-      <c r="AV79" s="15" t="s">
-        <v>60</v>
+        <v>181676468</v>
+      </c>
+      <c r="AV79" s="15">
+        <v>160618633</v>
       </c>
       <c r="AW79" s="15">
-        <v>181676468</v>
+        <v>141129587</v>
       </c>
       <c r="AX79" s="15">
-        <v>154648609</v>
+        <v>0</v>
       </c>
       <c r="AY79" s="15">
-        <v>146261877</v>
-      </c>
-      <c r="AZ79" s="15" t="s">
-        <v>60</v>
+        <v>134927540</v>
+      </c>
+      <c r="AZ79" s="15">
+        <v>118689078</v>
       </c>
       <c r="BA79" s="15">
-        <v>134927540</v>
+        <v>133713074</v>
       </c>
       <c r="BB79" s="15">
-        <v>118707135</v>
+        <v>149189732</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -9976,95 +9976,95 @@
       <c r="X80" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y80" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z80" s="17" t="s">
-        <v>60</v>
+      <c r="Y80" s="17">
+        <v>50938356</v>
+      </c>
+      <c r="Z80" s="17">
+        <v>54966615</v>
       </c>
       <c r="AA80" s="17">
-        <v>50938356</v>
+        <v>57706553</v>
       </c>
       <c r="AB80" s="17">
-        <v>54966615</v>
-      </c>
-      <c r="AC80" s="17">
-        <v>57706553</v>
+        <v>67829871</v>
+      </c>
+      <c r="AC80" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AD80" s="17">
-        <v>67829871</v>
-      </c>
-      <c r="AE80" s="17" t="s">
-        <v>60</v>
+        <v>92906933</v>
+      </c>
+      <c r="AE80" s="17">
+        <v>90869985</v>
       </c>
       <c r="AF80" s="17">
-        <v>92906933</v>
-      </c>
-      <c r="AG80" s="17">
-        <v>90869985</v>
+        <v>101691814</v>
+      </c>
+      <c r="AG80" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AH80" s="17">
-        <v>101691814</v>
-      </c>
-      <c r="AI80" s="17" t="s">
-        <v>60</v>
+        <v>86408358</v>
+      </c>
+      <c r="AI80" s="17">
+        <v>94415396</v>
       </c>
       <c r="AJ80" s="17">
-        <v>86408358</v>
+        <v>71444282</v>
       </c>
       <c r="AK80" s="17">
-        <v>94415396</v>
-      </c>
-      <c r="AL80" s="17">
-        <v>71444282</v>
-      </c>
-      <c r="AM80" s="17">
         <v>130832143</v>
       </c>
-      <c r="AN80" s="17" t="s">
-        <v>60</v>
+      <c r="AL80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN80" s="17">
+        <v>179670048</v>
       </c>
       <c r="AO80" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AP80" s="17">
-        <v>179670048</v>
-      </c>
-      <c r="AQ80" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR80" s="17" t="s">
-        <v>60</v>
+      <c r="AP80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ80" s="17">
+        <v>176915629</v>
+      </c>
+      <c r="AR80" s="17">
+        <v>0</v>
       </c>
       <c r="AS80" s="17">
-        <v>176915629</v>
+        <v>198856689</v>
       </c>
       <c r="AT80" s="17" t="s">
         <v>60</v>
       </c>
       <c r="AU80" s="17">
-        <v>198856689</v>
-      </c>
-      <c r="AV80" s="17" t="s">
-        <v>60</v>
+        <v>179233816</v>
+      </c>
+      <c r="AV80" s="17">
+        <v>160611658</v>
       </c>
       <c r="AW80" s="17">
-        <v>179233816</v>
+        <v>142009948</v>
       </c>
       <c r="AX80" s="17">
-        <v>154651652</v>
+        <v>0</v>
       </c>
       <c r="AY80" s="17">
-        <v>146248969</v>
-      </c>
-      <c r="AZ80" s="17" t="s">
-        <v>60</v>
+        <v>140247727</v>
+      </c>
+      <c r="AZ80" s="17">
+        <v>126851826</v>
       </c>
       <c r="BA80" s="17">
-        <v>140247727</v>
+        <v>133709270</v>
       </c>
       <c r="BB80" s="17">
-        <v>126851826</v>
+        <v>151508205</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10141,14 +10141,14 @@
       <c r="Z81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA81" s="15" t="s">
-        <v>60</v>
+      <c r="AA81" s="15">
+        <v>62559405</v>
       </c>
       <c r="AB81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AC81" s="15">
-        <v>62559405</v>
+      <c r="AC81" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AD81" s="15" t="s">
         <v>60</v>
@@ -10156,50 +10156,50 @@
       <c r="AE81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AF81" s="15" t="s">
-        <v>60</v>
+      <c r="AF81" s="15">
+        <v>96607429</v>
       </c>
       <c r="AG81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AH81" s="15">
-        <v>96607429</v>
-      </c>
-      <c r="AI81" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ81" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK81" s="15">
+      <c r="AH81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI81" s="15">
         <v>106531328</v>
       </c>
+      <c r="AJ81" s="15">
+        <v>108658744</v>
+      </c>
+      <c r="AK81" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AL81" s="15">
-        <v>108658744</v>
+        <v>124668013</v>
       </c>
       <c r="AM81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AN81" s="15">
-        <v>124668013</v>
-      </c>
-      <c r="AO81" s="15" t="s">
-        <v>60</v>
+      <c r="AN81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO81" s="15">
+        <v>159340304</v>
       </c>
       <c r="AP81" s="15" t="s">
         <v>60</v>
       </c>
       <c r="AQ81" s="15">
-        <v>159340304</v>
-      </c>
-      <c r="AR81" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS81" s="15">
         <v>154733166</v>
       </c>
-      <c r="AT81" s="15">
-        <v>175338779</v>
+      <c r="AR81" s="15">
+        <v>175958010</v>
+      </c>
+      <c r="AS81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT81" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AU81" s="15" t="s">
         <v>60</v>
@@ -10357,32 +10357,32 @@
       <c r="AS82" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AT82" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU82" s="17" t="s">
-        <v>60</v>
+      <c r="AT82" s="17">
+        <v>210619846</v>
+      </c>
+      <c r="AU82" s="17">
+        <v>190344688</v>
       </c>
       <c r="AV82" s="17">
-        <v>201110954</v>
+        <v>175238674</v>
       </c>
       <c r="AW82" s="17">
-        <v>191724671</v>
+        <v>0</v>
       </c>
       <c r="AX82" s="17">
-        <v>174432049</v>
+        <v>148443112</v>
       </c>
       <c r="AY82" s="17" t="s">
         <v>60</v>
       </c>
       <c r="AZ82" s="17">
-        <v>151797431</v>
-      </c>
-      <c r="BA82" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB82" s="17" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="BA82" s="17">
+        <v>156021927</v>
+      </c>
+      <c r="BB82" s="17">
+        <v>143225842</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10519,29 +10519,29 @@
       <c r="AT83" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AU83" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV83" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW83" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX83" s="15" t="s">
-        <v>60</v>
+      <c r="AU83" s="15">
+        <v>84220422</v>
+      </c>
+      <c r="AV83" s="15">
+        <v>-522</v>
+      </c>
+      <c r="AW83" s="15">
+        <v>74614640</v>
+      </c>
+      <c r="AX83" s="15">
+        <v>69007755</v>
       </c>
       <c r="AY83" s="15">
-        <v>74614882</v>
+        <v>73838880</v>
       </c>
       <c r="AZ83" s="15">
-        <v>69632000</v>
+        <v>85637420</v>
       </c>
       <c r="BA83" s="15">
-        <v>73838880</v>
+        <v>70277965</v>
       </c>
       <c r="BB83" s="15">
-        <v>86050487</v>
+        <v>81250522</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10681,26 +10681,26 @@
       <c r="AU84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AV84" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW84" s="17" t="s">
-        <v>60</v>
+      <c r="AV84" s="17">
+        <v>100008218</v>
+      </c>
+      <c r="AW84" s="17">
+        <v>0</v>
       </c>
       <c r="AX84" s="17">
-        <v>100008218</v>
+        <v>-5187</v>
       </c>
       <c r="AY84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AZ84" s="17" t="s">
-        <v>60</v>
+      <c r="AZ84" s="17">
+        <v>22502678</v>
       </c>
       <c r="BA84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="BB84" s="17">
-        <v>22502678</v>
+      <c r="BB84" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/shekhark/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shekhark/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF94FC2-1884-41F0-9F2C-9F944E7A0831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCC01F6-25B6-436D-8417-5B96FDD4CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شخارک-پتروشیمی‌ خارک‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -772,12 +772,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -832,7 +832,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="BA12" s="13"/>
       <c r="BB12" s="13"/>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
@@ -1715,77 +1715,77 @@
       <c r="V13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>60</v>
+      <c r="W13" s="15">
+        <v>4739</v>
+      </c>
+      <c r="X13" s="15">
+        <v>6119</v>
       </c>
       <c r="Y13" s="15">
-        <v>4739</v>
+        <v>66440</v>
       </c>
       <c r="Z13" s="15">
-        <v>6119</v>
+        <v>6940</v>
       </c>
       <c r="AA13" s="15">
-        <v>66440</v>
+        <v>6499</v>
       </c>
       <c r="AB13" s="15">
-        <v>6940</v>
+        <v>1070</v>
       </c>
       <c r="AC13" s="15">
-        <v>6499</v>
+        <v>8383</v>
       </c>
       <c r="AD13" s="15">
-        <v>1070</v>
+        <v>8627</v>
       </c>
       <c r="AE13" s="15">
-        <v>8383</v>
+        <v>6277</v>
       </c>
       <c r="AF13" s="15">
-        <v>8627</v>
+        <v>7533</v>
       </c>
       <c r="AG13" s="15">
-        <v>6277</v>
+        <v>7470</v>
       </c>
       <c r="AH13" s="15">
-        <v>7533</v>
+        <v>5063</v>
       </c>
       <c r="AI13" s="15">
-        <v>7470</v>
+        <v>6535</v>
       </c>
       <c r="AJ13" s="15">
-        <v>5063</v>
+        <v>4979</v>
       </c>
       <c r="AK13" s="15">
-        <v>6535</v>
+        <v>8299</v>
       </c>
       <c r="AL13" s="15">
-        <v>4979</v>
+        <v>8061</v>
       </c>
       <c r="AM13" s="15">
-        <v>8299</v>
+        <v>7717</v>
       </c>
       <c r="AN13" s="15">
-        <v>8061</v>
+        <v>6939</v>
       </c>
       <c r="AO13" s="15">
-        <v>7717</v>
+        <v>7175</v>
       </c>
       <c r="AP13" s="15">
-        <v>6939</v>
+        <v>7988</v>
       </c>
       <c r="AQ13" s="15">
-        <v>7175</v>
+        <v>9080</v>
       </c>
       <c r="AR13" s="15">
-        <v>7988</v>
+        <v>8926</v>
       </c>
       <c r="AS13" s="15">
-        <v>9080</v>
-      </c>
-      <c r="AT13" s="15">
-        <v>8926</v>
+        <v>8249</v>
+      </c>
+      <c r="AT13" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AU13" s="15" t="s">
         <v>60</v>
@@ -1812,7 +1812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>61</v>
       </c>
@@ -1874,77 +1874,77 @@
       <c r="V14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X14" s="17" t="s">
-        <v>60</v>
+      <c r="W14" s="17">
+        <v>58809</v>
+      </c>
+      <c r="X14" s="17">
+        <v>57818</v>
       </c>
       <c r="Y14" s="17">
-        <v>58809</v>
+        <v>58241</v>
       </c>
       <c r="Z14" s="17">
-        <v>57818</v>
+        <v>44206</v>
       </c>
       <c r="AA14" s="17">
-        <v>58241</v>
+        <v>47370</v>
       </c>
       <c r="AB14" s="17">
-        <v>44206</v>
+        <v>51980</v>
       </c>
       <c r="AC14" s="17">
-        <v>47370</v>
+        <v>47376</v>
       </c>
       <c r="AD14" s="17">
-        <v>51980</v>
+        <v>54519</v>
       </c>
       <c r="AE14" s="17">
-        <v>47376</v>
+        <v>53288</v>
       </c>
       <c r="AF14" s="17">
-        <v>54519</v>
+        <v>55287</v>
       </c>
       <c r="AG14" s="17">
-        <v>53288</v>
+        <v>34495</v>
       </c>
       <c r="AH14" s="17">
-        <v>55287</v>
+        <v>13071</v>
       </c>
       <c r="AI14" s="17">
-        <v>34495</v>
+        <v>61428</v>
       </c>
       <c r="AJ14" s="17">
-        <v>13071</v>
+        <v>57554</v>
       </c>
       <c r="AK14" s="17">
-        <v>61428</v>
+        <v>61164</v>
       </c>
       <c r="AL14" s="17">
-        <v>57554</v>
+        <v>59311</v>
       </c>
       <c r="AM14" s="17">
-        <v>61164</v>
+        <v>55026</v>
       </c>
       <c r="AN14" s="17">
-        <v>59311</v>
+        <v>59527</v>
       </c>
       <c r="AO14" s="17">
-        <v>55026</v>
+        <v>58891</v>
       </c>
       <c r="AP14" s="17">
-        <v>59527</v>
+        <v>60355</v>
       </c>
       <c r="AQ14" s="17">
-        <v>58891</v>
+        <v>49330</v>
       </c>
       <c r="AR14" s="17">
-        <v>60355</v>
+        <v>41724</v>
       </c>
       <c r="AS14" s="17">
-        <v>49330</v>
-      </c>
-      <c r="AT14" s="17">
-        <v>41724</v>
+        <v>58219</v>
+      </c>
+      <c r="AT14" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AU14" s="17" t="s">
         <v>60</v>
@@ -1971,7 +1971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2033,104 +2033,104 @@
       <c r="V15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X15" s="15" t="s">
-        <v>60</v>
+      <c r="W15" s="15">
+        <v>8074</v>
+      </c>
+      <c r="X15" s="15">
+        <v>8167</v>
       </c>
       <c r="Y15" s="15">
-        <v>8074</v>
+        <v>8300</v>
       </c>
       <c r="Z15" s="15">
-        <v>8167</v>
+        <v>7727</v>
       </c>
       <c r="AA15" s="15">
-        <v>8300</v>
+        <v>8169</v>
       </c>
       <c r="AB15" s="15">
-        <v>7727</v>
+        <v>1319</v>
       </c>
       <c r="AC15" s="15">
-        <v>8169</v>
+        <v>10611</v>
       </c>
       <c r="AD15" s="15">
-        <v>1319</v>
+        <v>11651</v>
       </c>
       <c r="AE15" s="15">
-        <v>10611</v>
+        <v>6685</v>
       </c>
       <c r="AF15" s="15">
-        <v>11651</v>
+        <v>8674</v>
       </c>
       <c r="AG15" s="15">
-        <v>6685</v>
+        <v>11313</v>
       </c>
       <c r="AH15" s="15">
-        <v>8674</v>
+        <v>8472</v>
       </c>
       <c r="AI15" s="15">
-        <v>11313</v>
+        <v>9228</v>
       </c>
       <c r="AJ15" s="15">
-        <v>8472</v>
+        <v>10890</v>
       </c>
       <c r="AK15" s="15">
-        <v>9228</v>
+        <v>10714</v>
       </c>
       <c r="AL15" s="15">
-        <v>10890</v>
+        <v>8271</v>
       </c>
       <c r="AM15" s="15">
-        <v>10714</v>
+        <v>8156</v>
       </c>
       <c r="AN15" s="15">
-        <v>8271</v>
+        <v>8491</v>
       </c>
       <c r="AO15" s="15">
-        <v>8156</v>
+        <v>8188</v>
       </c>
       <c r="AP15" s="15">
-        <v>8491</v>
+        <v>9023</v>
       </c>
       <c r="AQ15" s="15">
-        <v>8188</v>
+        <v>6844</v>
       </c>
       <c r="AR15" s="15">
-        <v>9023</v>
+        <v>9453</v>
       </c>
       <c r="AS15" s="15">
-        <v>6844</v>
+        <v>8552</v>
       </c>
       <c r="AT15" s="15">
-        <v>9287</v>
+        <v>8862</v>
       </c>
       <c r="AU15" s="15">
-        <v>8380</v>
+        <v>8745</v>
       </c>
       <c r="AV15" s="15">
-        <v>8862</v>
+        <v>7972</v>
       </c>
       <c r="AW15" s="15">
-        <v>8745</v>
+        <v>8681</v>
       </c>
       <c r="AX15" s="15">
-        <v>8859</v>
+        <v>9982</v>
       </c>
       <c r="AY15" s="15">
-        <v>8681</v>
+        <v>11190</v>
       </c>
       <c r="AZ15" s="15">
-        <v>9982</v>
+        <v>11126</v>
       </c>
       <c r="BA15" s="15">
-        <v>11190</v>
+        <v>10966</v>
       </c>
       <c r="BB15" s="15">
-        <v>11126</v>
+        <v>11333</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>63</v>
       </c>
@@ -2192,104 +2192,104 @@
       <c r="V16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>60</v>
+      <c r="W16" s="17">
+        <v>5658</v>
+      </c>
+      <c r="X16" s="17">
+        <v>6830</v>
       </c>
       <c r="Y16" s="17">
-        <v>5658</v>
+        <v>6970</v>
       </c>
       <c r="Z16" s="17">
-        <v>6830</v>
+        <v>6623</v>
       </c>
       <c r="AA16" s="17">
-        <v>6970</v>
+        <v>6846</v>
       </c>
       <c r="AB16" s="17">
-        <v>6623</v>
+        <v>567</v>
       </c>
       <c r="AC16" s="17">
-        <v>6846</v>
+        <v>9168</v>
       </c>
       <c r="AD16" s="17">
-        <v>567</v>
+        <v>8714</v>
       </c>
       <c r="AE16" s="17">
-        <v>9168</v>
+        <v>4835</v>
       </c>
       <c r="AF16" s="17">
-        <v>8714</v>
+        <v>6080</v>
       </c>
       <c r="AG16" s="17">
-        <v>4835</v>
+        <v>8800</v>
       </c>
       <c r="AH16" s="17">
-        <v>6080</v>
+        <v>6310</v>
       </c>
       <c r="AI16" s="17">
-        <v>8800</v>
+        <v>7503</v>
       </c>
       <c r="AJ16" s="17">
-        <v>6310</v>
+        <v>7090</v>
       </c>
       <c r="AK16" s="17">
-        <v>7503</v>
+        <v>6915</v>
       </c>
       <c r="AL16" s="17">
-        <v>7090</v>
+        <v>6258</v>
       </c>
       <c r="AM16" s="17">
-        <v>6915</v>
+        <v>5620</v>
       </c>
       <c r="AN16" s="17">
-        <v>6258</v>
+        <v>5948</v>
       </c>
       <c r="AO16" s="17">
-        <v>5620</v>
+        <v>6319</v>
       </c>
       <c r="AP16" s="17">
-        <v>5948</v>
+        <v>6567</v>
       </c>
       <c r="AQ16" s="17">
-        <v>6319</v>
+        <v>4491</v>
       </c>
       <c r="AR16" s="17">
-        <v>6567</v>
+        <v>6428</v>
       </c>
       <c r="AS16" s="17">
-        <v>4491</v>
+        <v>5748</v>
       </c>
       <c r="AT16" s="17">
-        <v>6188</v>
+        <v>5689</v>
       </c>
       <c r="AU16" s="17">
-        <v>5501</v>
+        <v>5975</v>
       </c>
       <c r="AV16" s="17">
-        <v>5689</v>
+        <v>5527</v>
       </c>
       <c r="AW16" s="17">
-        <v>5975</v>
+        <v>6095</v>
       </c>
       <c r="AX16" s="17">
-        <v>6901</v>
+        <v>7986</v>
       </c>
       <c r="AY16" s="17">
-        <v>6095</v>
+        <v>9222</v>
       </c>
       <c r="AZ16" s="17">
-        <v>7986</v>
+        <v>9199</v>
       </c>
       <c r="BA16" s="17">
-        <v>9222</v>
+        <v>9124</v>
       </c>
       <c r="BB16" s="17">
-        <v>9199</v>
+        <v>9293</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
@@ -2351,75 +2351,75 @@
       <c r="V17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>60</v>
+      <c r="W17" s="15">
+        <v>5973</v>
+      </c>
+      <c r="X17" s="15">
+        <v>7626</v>
       </c>
       <c r="Y17" s="15">
-        <v>5973</v>
+        <v>7350</v>
       </c>
       <c r="Z17" s="15">
-        <v>7626</v>
+        <v>6785</v>
       </c>
       <c r="AA17" s="15">
-        <v>7350</v>
+        <v>6517</v>
       </c>
       <c r="AB17" s="15">
-        <v>6785</v>
+        <v>685</v>
       </c>
       <c r="AC17" s="15">
-        <v>6517</v>
+        <v>7655</v>
       </c>
       <c r="AD17" s="15">
-        <v>685</v>
+        <v>7837</v>
       </c>
       <c r="AE17" s="15">
-        <v>7655</v>
+        <v>4561</v>
       </c>
       <c r="AF17" s="15">
-        <v>7837</v>
+        <v>6498</v>
       </c>
       <c r="AG17" s="15">
-        <v>4561</v>
+        <v>7309</v>
       </c>
       <c r="AH17" s="15">
-        <v>6498</v>
+        <v>5076</v>
       </c>
       <c r="AI17" s="15">
-        <v>7309</v>
+        <v>6740</v>
       </c>
       <c r="AJ17" s="15">
-        <v>5076</v>
+        <v>9146</v>
       </c>
       <c r="AK17" s="15">
-        <v>6740</v>
+        <v>9549</v>
       </c>
       <c r="AL17" s="15">
-        <v>9146</v>
+        <v>7781</v>
       </c>
       <c r="AM17" s="15">
-        <v>9549</v>
+        <v>6960</v>
       </c>
       <c r="AN17" s="15">
-        <v>7781</v>
+        <v>6835</v>
       </c>
       <c r="AO17" s="15">
-        <v>6960</v>
+        <v>5771</v>
       </c>
       <c r="AP17" s="15">
-        <v>6835</v>
+        <v>6520</v>
       </c>
       <c r="AQ17" s="15">
-        <v>5771</v>
-      </c>
-      <c r="AR17" s="15">
-        <v>6520</v>
-      </c>
-      <c r="AS17" s="15">
         <v>5312</v>
       </c>
+      <c r="AR17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS17" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AT17" s="15" t="s">
         <v>60</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>65</v>
       </c>
@@ -2573,41 +2573,41 @@
       <c r="AQ18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AR18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS18" s="17" t="s">
-        <v>60</v>
+      <c r="AR18" s="17">
+        <v>7523</v>
+      </c>
+      <c r="AS18" s="17">
+        <v>8275</v>
       </c>
       <c r="AT18" s="17">
-        <v>7523</v>
+        <v>7665</v>
       </c>
       <c r="AU18" s="17">
-        <v>8275</v>
+        <v>7643</v>
       </c>
       <c r="AV18" s="17">
-        <v>7665</v>
+        <v>6369</v>
       </c>
       <c r="AW18" s="17">
-        <v>7643</v>
+        <v>7595</v>
       </c>
       <c r="AX18" s="17">
-        <v>6556</v>
+        <v>9427</v>
       </c>
       <c r="AY18" s="17">
-        <v>7595</v>
+        <v>10390</v>
       </c>
       <c r="AZ18" s="17">
-        <v>9427</v>
+        <v>9881</v>
       </c>
       <c r="BA18" s="17">
-        <v>10390</v>
+        <v>9355</v>
       </c>
       <c r="BB18" s="17">
-        <v>9881</v>
+        <v>8820</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -2738,35 +2738,35 @@
       <c r="AS19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AT19" s="15" t="s">
-        <v>60</v>
+      <c r="AT19" s="15">
+        <v>59089</v>
       </c>
       <c r="AU19" s="15">
-        <v>58219</v>
+        <v>58356</v>
       </c>
       <c r="AV19" s="15">
-        <v>59089</v>
+        <v>54116</v>
       </c>
       <c r="AW19" s="15">
-        <v>58356</v>
+        <v>59197</v>
       </c>
       <c r="AX19" s="15">
-        <v>54901</v>
+        <v>56927</v>
       </c>
       <c r="AY19" s="15">
-        <v>59197</v>
+        <v>57966</v>
       </c>
       <c r="AZ19" s="15">
-        <v>56927</v>
+        <v>55168</v>
       </c>
       <c r="BA19" s="15">
-        <v>57966</v>
+        <v>57283</v>
       </c>
       <c r="BB19" s="15">
-        <v>55168</v>
+        <v>57379</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>67</v>
       </c>
@@ -2897,35 +2897,35 @@
       <c r="AS20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AT20" s="17" t="s">
-        <v>60</v>
+      <c r="AT20" s="17">
+        <v>8365</v>
       </c>
       <c r="AU20" s="17">
-        <v>8249</v>
+        <v>8685</v>
       </c>
       <c r="AV20" s="17">
-        <v>8365</v>
+        <v>8303</v>
       </c>
       <c r="AW20" s="17">
-        <v>8685</v>
+        <v>8629</v>
       </c>
       <c r="AX20" s="17">
-        <v>8303</v>
+        <v>8238</v>
       </c>
       <c r="AY20" s="17">
-        <v>8629</v>
+        <v>8125</v>
       </c>
       <c r="AZ20" s="17">
-        <v>8238</v>
+        <v>7923</v>
       </c>
       <c r="BA20" s="17">
-        <v>8125</v>
+        <v>8173</v>
       </c>
       <c r="BB20" s="17">
-        <v>7923</v>
+        <v>8020</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -2986,103 +2986,103 @@
         <v>0</v>
       </c>
       <c r="W21" s="11">
-        <v>0</v>
+        <v>83253</v>
       </c>
       <c r="X21" s="11">
-        <v>0</v>
+        <v>86560</v>
       </c>
       <c r="Y21" s="11">
-        <v>83253</v>
+        <v>147301</v>
       </c>
       <c r="Z21" s="11">
-        <v>86560</v>
+        <v>72281</v>
       </c>
       <c r="AA21" s="11">
-        <v>147301</v>
+        <v>75401</v>
       </c>
       <c r="AB21" s="11">
-        <v>72281</v>
+        <v>55621</v>
       </c>
       <c r="AC21" s="11">
-        <v>75401</v>
+        <v>83193</v>
       </c>
       <c r="AD21" s="11">
-        <v>55621</v>
+        <v>91348</v>
       </c>
       <c r="AE21" s="11">
-        <v>83193</v>
+        <v>75646</v>
       </c>
       <c r="AF21" s="11">
-        <v>91348</v>
+        <v>84072</v>
       </c>
       <c r="AG21" s="11">
-        <v>75646</v>
+        <v>69387</v>
       </c>
       <c r="AH21" s="11">
-        <v>84072</v>
+        <v>37992</v>
       </c>
       <c r="AI21" s="11">
-        <v>69387</v>
+        <v>91434</v>
       </c>
       <c r="AJ21" s="11">
-        <v>37992</v>
+        <v>89659</v>
       </c>
       <c r="AK21" s="11">
-        <v>91434</v>
+        <v>96641</v>
       </c>
       <c r="AL21" s="11">
-        <v>89659</v>
+        <v>89682</v>
       </c>
       <c r="AM21" s="11">
-        <v>96641</v>
+        <v>83479</v>
       </c>
       <c r="AN21" s="11">
-        <v>89682</v>
+        <v>87740</v>
       </c>
       <c r="AO21" s="11">
-        <v>83479</v>
+        <v>86344</v>
       </c>
       <c r="AP21" s="11">
-        <v>87740</v>
+        <v>90453</v>
       </c>
       <c r="AQ21" s="11">
-        <v>86344</v>
+        <v>75057</v>
       </c>
       <c r="AR21" s="11">
-        <v>90453</v>
+        <v>74054</v>
       </c>
       <c r="AS21" s="11">
-        <v>75057</v>
+        <v>89043</v>
       </c>
       <c r="AT21" s="11">
-        <v>73648</v>
+        <v>89670</v>
       </c>
       <c r="AU21" s="11">
-        <v>88624</v>
+        <v>89404</v>
       </c>
       <c r="AV21" s="11">
-        <v>89670</v>
+        <v>82287</v>
       </c>
       <c r="AW21" s="11">
-        <v>89404</v>
+        <v>90197</v>
       </c>
       <c r="AX21" s="11">
-        <v>85520</v>
+        <v>92560</v>
       </c>
       <c r="AY21" s="11">
-        <v>90197</v>
+        <v>96893</v>
       </c>
       <c r="AZ21" s="11">
-        <v>92560</v>
+        <v>93297</v>
       </c>
       <c r="BA21" s="11">
-        <v>96893</v>
+        <v>94901</v>
       </c>
       <c r="BB21" s="11">
-        <v>93297</v>
+        <v>94845</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>69</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3199,11 +3199,11 @@
       <c r="V23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>60</v>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+      <c r="X23" s="11">
+        <v>0</v>
       </c>
       <c r="Y23" s="11">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>71</v>
       </c>
@@ -3357,103 +3357,103 @@
         <v>0</v>
       </c>
       <c r="W24" s="19">
-        <v>0</v>
+        <v>83253</v>
       </c>
       <c r="X24" s="19">
-        <v>0</v>
+        <v>86560</v>
       </c>
       <c r="Y24" s="19">
-        <v>83253</v>
+        <v>147301</v>
       </c>
       <c r="Z24" s="19">
-        <v>86560</v>
+        <v>72281</v>
       </c>
       <c r="AA24" s="19">
-        <v>147301</v>
+        <v>75401</v>
       </c>
       <c r="AB24" s="19">
-        <v>72281</v>
+        <v>55621</v>
       </c>
       <c r="AC24" s="19">
-        <v>75401</v>
+        <v>83193</v>
       </c>
       <c r="AD24" s="19">
-        <v>55621</v>
+        <v>91348</v>
       </c>
       <c r="AE24" s="19">
-        <v>83193</v>
+        <v>75646</v>
       </c>
       <c r="AF24" s="19">
-        <v>91348</v>
+        <v>84072</v>
       </c>
       <c r="AG24" s="19">
-        <v>75646</v>
+        <v>69387</v>
       </c>
       <c r="AH24" s="19">
-        <v>84072</v>
+        <v>37992</v>
       </c>
       <c r="AI24" s="19">
-        <v>69387</v>
+        <v>91434</v>
       </c>
       <c r="AJ24" s="19">
-        <v>37992</v>
+        <v>89659</v>
       </c>
       <c r="AK24" s="19">
-        <v>91434</v>
+        <v>96641</v>
       </c>
       <c r="AL24" s="19">
-        <v>89659</v>
+        <v>89682</v>
       </c>
       <c r="AM24" s="19">
-        <v>96641</v>
+        <v>83479</v>
       </c>
       <c r="AN24" s="19">
-        <v>89682</v>
+        <v>87740</v>
       </c>
       <c r="AO24" s="19">
-        <v>83479</v>
+        <v>86344</v>
       </c>
       <c r="AP24" s="19">
-        <v>87740</v>
+        <v>90453</v>
       </c>
       <c r="AQ24" s="19">
-        <v>86344</v>
+        <v>75057</v>
       </c>
       <c r="AR24" s="19">
-        <v>90453</v>
+        <v>74054</v>
       </c>
       <c r="AS24" s="19">
-        <v>75057</v>
+        <v>89043</v>
       </c>
       <c r="AT24" s="19">
-        <v>73648</v>
+        <v>89670</v>
       </c>
       <c r="AU24" s="19">
-        <v>88624</v>
+        <v>89404</v>
       </c>
       <c r="AV24" s="19">
-        <v>89670</v>
+        <v>82287</v>
       </c>
       <c r="AW24" s="19">
-        <v>89404</v>
+        <v>90197</v>
       </c>
       <c r="AX24" s="19">
-        <v>85520</v>
+        <v>92560</v>
       </c>
       <c r="AY24" s="19">
-        <v>90197</v>
+        <v>96893</v>
       </c>
       <c r="AZ24" s="19">
-        <v>92560</v>
+        <v>93297</v>
       </c>
       <c r="BA24" s="19">
-        <v>96893</v>
+        <v>94901</v>
       </c>
       <c r="BB24" s="19">
-        <v>93297</v>
+        <v>94845</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3508,7 +3508,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3563,7 +3563,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3618,7 +3618,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3830,7 +3830,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>73</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>74</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>75</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="BA32" s="13"/>
       <c r="BB32" s="13"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>58</v>
       </c>
@@ -4163,77 +4163,77 @@
       <c r="V33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W33" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X33" s="15" t="s">
-        <v>60</v>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
+        <v>0</v>
       </c>
       <c r="Y33" s="15">
         <v>0</v>
       </c>
       <c r="Z33" s="15">
-        <v>0</v>
+        <v>30922</v>
       </c>
       <c r="AA33" s="15">
         <v>0</v>
       </c>
       <c r="AB33" s="15">
-        <v>30922</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="15">
-        <v>0</v>
+        <v>26952</v>
       </c>
       <c r="AD33" s="15">
         <v>0</v>
       </c>
       <c r="AE33" s="15">
-        <v>26952</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="15">
         <v>0</v>
       </c>
-      <c r="AG33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="15" t="s">
-        <v>60</v>
+      <c r="AG33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI33" s="15">
+        <v>33839</v>
       </c>
       <c r="AJ33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AK33" s="15">
-        <v>33839</v>
+      <c r="AK33" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AL33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AM33" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN33" s="15" t="s">
-        <v>60</v>
+      <c r="AM33" s="15">
+        <v>34479</v>
+      </c>
+      <c r="AN33" s="15">
+        <v>0</v>
       </c>
       <c r="AO33" s="15">
-        <v>34479</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="15">
-        <v>0</v>
+        <v>25321</v>
       </c>
       <c r="AQ33" s="15">
         <v>0</v>
       </c>
       <c r="AR33" s="15">
-        <v>25321</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="15">
         <v>0</v>
       </c>
-      <c r="AT33" s="15">
-        <v>0</v>
+      <c r="AT33" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AU33" s="15" t="s">
         <v>60</v>
@@ -4260,7 +4260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>61</v>
       </c>
@@ -4322,77 +4322,77 @@
       <c r="V34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X34" s="17" t="s">
-        <v>60</v>
+      <c r="W34" s="17">
+        <v>0</v>
+      </c>
+      <c r="X34" s="17">
+        <v>98426</v>
       </c>
       <c r="Y34" s="17">
-        <v>0</v>
+        <v>50639</v>
       </c>
       <c r="Z34" s="17">
-        <v>98426</v>
+        <v>82052</v>
       </c>
       <c r="AA34" s="17">
-        <v>50639</v>
+        <v>92633</v>
       </c>
       <c r="AB34" s="17">
-        <v>82052</v>
+        <v>16784</v>
       </c>
       <c r="AC34" s="17">
-        <v>92633</v>
+        <v>93679</v>
       </c>
       <c r="AD34" s="17">
-        <v>16784</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="17">
-        <v>93679</v>
+        <v>123233</v>
       </c>
       <c r="AF34" s="17">
-        <v>0</v>
+        <v>45037</v>
       </c>
       <c r="AG34" s="17">
-        <v>123233</v>
+        <v>41466</v>
       </c>
       <c r="AH34" s="17">
-        <v>45037</v>
+        <v>34491</v>
       </c>
       <c r="AI34" s="17">
-        <v>41466</v>
-      </c>
-      <c r="AJ34" s="17">
-        <v>34491</v>
+        <v>75496</v>
+      </c>
+      <c r="AJ34" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AK34" s="17">
-        <v>75496</v>
+        <v>118362</v>
       </c>
       <c r="AL34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AM34" s="17">
-        <v>118362</v>
-      </c>
-      <c r="AN34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO34" s="17" t="s">
-        <v>60</v>
+      <c r="AM34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN34" s="17">
+        <v>75828</v>
+      </c>
+      <c r="AO34" s="17">
+        <v>68266</v>
       </c>
       <c r="AP34" s="17">
-        <v>75828</v>
+        <v>104780</v>
       </c>
       <c r="AQ34" s="17">
-        <v>68266</v>
+        <v>14414</v>
       </c>
       <c r="AR34" s="17">
-        <v>104780</v>
+        <v>58176</v>
       </c>
       <c r="AS34" s="17">
-        <v>14414</v>
-      </c>
-      <c r="AT34" s="17">
-        <v>58176</v>
+        <v>49097</v>
+      </c>
+      <c r="AT34" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AU34" s="17" t="s">
         <v>60</v>
@@ -4419,7 +4419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>62</v>
       </c>
@@ -4481,104 +4481,104 @@
       <c r="V35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W35" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>60</v>
+      <c r="W35" s="15">
+        <v>3943</v>
+      </c>
+      <c r="X35" s="15">
+        <v>6492</v>
       </c>
       <c r="Y35" s="15">
-        <v>3943</v>
+        <v>7232</v>
       </c>
       <c r="Z35" s="15">
-        <v>6492</v>
+        <v>14510</v>
       </c>
       <c r="AA35" s="15">
-        <v>7232</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="15">
-        <v>14510</v>
+        <v>4782</v>
       </c>
       <c r="AC35" s="15">
-        <v>0</v>
+        <v>7435</v>
       </c>
       <c r="AD35" s="15">
-        <v>4782</v>
+        <v>13947</v>
       </c>
       <c r="AE35" s="15">
-        <v>7435</v>
+        <v>590</v>
       </c>
       <c r="AF35" s="15">
-        <v>13947</v>
+        <v>29858</v>
       </c>
       <c r="AG35" s="15">
-        <v>590</v>
+        <v>13613</v>
       </c>
       <c r="AH35" s="15">
-        <v>29858</v>
+        <v>3832</v>
       </c>
       <c r="AI35" s="15">
-        <v>13613</v>
-      </c>
-      <c r="AJ35" s="15">
-        <v>3832</v>
-      </c>
-      <c r="AK35" s="15">
         <v>17862</v>
       </c>
-      <c r="AL35" s="15" t="s">
-        <v>60</v>
+      <c r="AJ35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL35" s="15">
+        <v>25481</v>
       </c>
       <c r="AM35" s="15" t="s">
         <v>60</v>
       </c>
       <c r="AN35" s="15">
-        <v>25481</v>
-      </c>
-      <c r="AO35" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP35" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="15">
+        <v>23252</v>
+      </c>
+      <c r="AP35" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ35" s="15">
-        <v>23252</v>
+        <v>12868</v>
       </c>
       <c r="AR35" s="15">
         <v>0</v>
       </c>
       <c r="AS35" s="15">
-        <v>12868</v>
+        <v>12855</v>
       </c>
       <c r="AT35" s="15">
-        <v>0</v>
+        <v>12866</v>
       </c>
       <c r="AU35" s="15">
-        <v>12855</v>
+        <v>12861</v>
       </c>
       <c r="AV35" s="15">
-        <v>12866</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="15">
-        <v>12861</v>
+        <v>12807</v>
       </c>
       <c r="AX35" s="15">
-        <v>0</v>
+        <v>6573</v>
       </c>
       <c r="AY35" s="15">
-        <v>12807</v>
+        <v>7779</v>
       </c>
       <c r="AZ35" s="15">
-        <v>6574</v>
+        <v>12407</v>
       </c>
       <c r="BA35" s="15">
-        <v>7779</v>
+        <v>9932</v>
       </c>
       <c r="BB35" s="15">
-        <v>12407</v>
+        <v>16609</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>63</v>
       </c>
@@ -4640,104 +4640,104 @@
       <c r="V36" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X36" s="17" t="s">
-        <v>60</v>
+      <c r="W36" s="17">
+        <v>2628</v>
+      </c>
+      <c r="X36" s="17">
+        <v>3235</v>
       </c>
       <c r="Y36" s="17">
-        <v>2628</v>
+        <v>4914</v>
       </c>
       <c r="Z36" s="17">
-        <v>3235</v>
+        <v>9869</v>
       </c>
       <c r="AA36" s="17">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="17">
-        <v>9869</v>
+        <v>4803</v>
       </c>
       <c r="AC36" s="17">
-        <v>0</v>
+        <v>7253</v>
       </c>
       <c r="AD36" s="17">
-        <v>4803</v>
+        <v>12632</v>
       </c>
       <c r="AE36" s="17">
-        <v>7253</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="17">
-        <v>12632</v>
+        <v>23570</v>
       </c>
       <c r="AG36" s="17">
-        <v>0</v>
+        <v>7807</v>
       </c>
       <c r="AH36" s="17">
-        <v>23570</v>
+        <v>2728</v>
       </c>
       <c r="AI36" s="17">
-        <v>7807</v>
-      </c>
-      <c r="AJ36" s="17">
-        <v>2728</v>
-      </c>
-      <c r="AK36" s="17">
         <v>14000</v>
       </c>
-      <c r="AL36" s="17" t="s">
-        <v>60</v>
+      <c r="AJ36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL36" s="17">
+        <v>18733</v>
       </c>
       <c r="AM36" s="17" t="s">
         <v>60</v>
       </c>
       <c r="AN36" s="17">
-        <v>18733</v>
-      </c>
-      <c r="AO36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP36" s="17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="17">
+        <v>17423</v>
+      </c>
+      <c r="AP36" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AQ36" s="17">
-        <v>17423</v>
+        <v>7557</v>
       </c>
       <c r="AR36" s="17">
         <v>0</v>
       </c>
       <c r="AS36" s="17">
-        <v>7557</v>
+        <v>7523</v>
       </c>
       <c r="AT36" s="17">
-        <v>0</v>
+        <v>7504</v>
       </c>
       <c r="AU36" s="17">
-        <v>7523</v>
+        <v>7515</v>
       </c>
       <c r="AV36" s="17">
-        <v>7504</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="17">
-        <v>7515</v>
+        <v>7480</v>
       </c>
       <c r="AX36" s="17">
-        <v>0</v>
+        <v>2821</v>
       </c>
       <c r="AY36" s="17">
-        <v>7480</v>
+        <v>12362</v>
       </c>
       <c r="AZ36" s="17">
-        <v>2821</v>
+        <v>14626</v>
       </c>
       <c r="BA36" s="17">
-        <v>12362</v>
+        <v>3965</v>
       </c>
       <c r="BB36" s="17">
-        <v>14626</v>
+        <v>10040</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>64</v>
       </c>
@@ -4799,20 +4799,20 @@
       <c r="V37" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W37" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>60</v>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
       </c>
       <c r="Y37" s="15">
-        <v>0</v>
+        <v>25688</v>
       </c>
       <c r="Z37" s="15">
         <v>0</v>
       </c>
       <c r="AA37" s="15">
-        <v>25688</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="15">
         <v>0</v>
@@ -4821,52 +4821,52 @@
         <v>0</v>
       </c>
       <c r="AD37" s="15">
-        <v>0</v>
+        <v>20111</v>
       </c>
       <c r="AE37" s="15">
         <v>0</v>
       </c>
       <c r="AF37" s="15">
-        <v>20111</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="15">
-        <v>0</v>
+        <v>13566</v>
       </c>
       <c r="AH37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="15">
-        <v>13566</v>
+        <v>8835</v>
+      </c>
+      <c r="AI37" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AJ37" s="15">
-        <v>8835</v>
+        <v>22028</v>
       </c>
       <c r="AK37" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL37" s="15">
-        <v>22028</v>
-      </c>
-      <c r="AM37" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN37" s="15" t="s">
-        <v>60</v>
+      <c r="AL37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM37" s="15">
+        <v>25107</v>
+      </c>
+      <c r="AN37" s="15">
+        <v>0</v>
       </c>
       <c r="AO37" s="15">
-        <v>25107</v>
+        <v>9980</v>
       </c>
       <c r="AP37" s="15">
-        <v>0</v>
+        <v>10039</v>
       </c>
       <c r="AQ37" s="15">
-        <v>9980</v>
-      </c>
-      <c r="AR37" s="15">
-        <v>10038</v>
-      </c>
-      <c r="AS37" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS37" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AT37" s="15" t="s">
         <v>60</v>
@@ -4896,7 +4896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>65</v>
       </c>
@@ -5021,41 +5021,41 @@
       <c r="AQ38" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AR38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS38" s="17" t="s">
-        <v>60</v>
+      <c r="AR38" s="17">
+        <v>9896</v>
+      </c>
+      <c r="AS38" s="17">
+        <v>10097</v>
       </c>
       <c r="AT38" s="17">
-        <v>9896</v>
+        <v>10228</v>
       </c>
       <c r="AU38" s="17">
-        <v>10097</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="17">
-        <v>10228</v>
+        <v>9266</v>
       </c>
       <c r="AW38" s="17">
         <v>0</v>
       </c>
       <c r="AX38" s="17">
-        <v>9266</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="17">
-        <v>0</v>
+        <v>20112</v>
       </c>
       <c r="AZ38" s="17">
-        <v>0</v>
+        <v>17189</v>
       </c>
       <c r="BA38" s="17">
-        <v>20112</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="17">
-        <v>17189</v>
+        <v>18766</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>66</v>
       </c>
@@ -5186,35 +5186,35 @@
       <c r="AS39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AT39" s="15" t="s">
-        <v>60</v>
+      <c r="AT39" s="15">
+        <v>0</v>
       </c>
       <c r="AU39" s="15">
-        <v>49096</v>
+        <v>90967</v>
       </c>
       <c r="AV39" s="15">
-        <v>0</v>
+        <v>80174</v>
       </c>
       <c r="AW39" s="15">
-        <v>90967</v>
+        <v>54301</v>
       </c>
       <c r="AX39" s="15">
-        <v>80174</v>
+        <v>125419</v>
       </c>
       <c r="AY39" s="15">
-        <v>54301</v>
+        <v>21956</v>
       </c>
       <c r="AZ39" s="15">
-        <v>125418</v>
+        <v>51273</v>
       </c>
       <c r="BA39" s="15">
-        <v>21956</v>
+        <v>36756</v>
       </c>
       <c r="BB39" s="15">
-        <v>51273</v>
+        <v>85509</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>67</v>
       </c>
@@ -5345,35 +5345,35 @@
       <c r="AS40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AT40" s="17" t="s">
-        <v>60</v>
+      <c r="AT40" s="17">
+        <v>32002</v>
       </c>
       <c r="AU40" s="17">
         <v>0</v>
       </c>
       <c r="AV40" s="17">
-        <v>32002</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="17">
         <v>0</v>
       </c>
       <c r="AX40" s="17">
-        <v>0</v>
+        <v>28010</v>
       </c>
       <c r="AY40" s="17">
         <v>0</v>
       </c>
       <c r="AZ40" s="17">
-        <v>28010</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="17">
         <v>0</v>
       </c>
       <c r="BB40" s="17">
-        <v>0</v>
+        <v>31046</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>76</v>
       </c>
@@ -5434,103 +5434,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="11">
-        <v>0</v>
+        <v>6571</v>
       </c>
       <c r="X41" s="11">
-        <v>0</v>
+        <v>108153</v>
       </c>
       <c r="Y41" s="11">
-        <v>6571</v>
+        <v>88473</v>
       </c>
       <c r="Z41" s="11">
-        <v>108153</v>
+        <v>137353</v>
       </c>
       <c r="AA41" s="11">
-        <v>88473</v>
+        <v>92633</v>
       </c>
       <c r="AB41" s="11">
-        <v>137353</v>
+        <v>26369</v>
       </c>
       <c r="AC41" s="11">
-        <v>92633</v>
+        <v>135319</v>
       </c>
       <c r="AD41" s="11">
-        <v>26369</v>
+        <v>46690</v>
       </c>
       <c r="AE41" s="11">
-        <v>135319</v>
+        <v>123823</v>
       </c>
       <c r="AF41" s="11">
-        <v>46690</v>
+        <v>98465</v>
       </c>
       <c r="AG41" s="11">
-        <v>123823</v>
+        <v>76452</v>
       </c>
       <c r="AH41" s="11">
-        <v>98465</v>
+        <v>49886</v>
       </c>
       <c r="AI41" s="11">
-        <v>76452</v>
+        <v>141197</v>
       </c>
       <c r="AJ41" s="11">
-        <v>49886</v>
+        <v>22028</v>
       </c>
       <c r="AK41" s="11">
-        <v>141197</v>
+        <v>118362</v>
       </c>
       <c r="AL41" s="11">
-        <v>22028</v>
+        <v>44214</v>
       </c>
       <c r="AM41" s="11">
-        <v>118362</v>
+        <v>59586</v>
       </c>
       <c r="AN41" s="11">
-        <v>44214</v>
+        <v>75828</v>
       </c>
       <c r="AO41" s="11">
-        <v>59586</v>
+        <v>118921</v>
       </c>
       <c r="AP41" s="11">
-        <v>75828</v>
+        <v>140140</v>
       </c>
       <c r="AQ41" s="11">
-        <v>118921</v>
+        <v>34839</v>
       </c>
       <c r="AR41" s="11">
-        <v>140139</v>
+        <v>68072</v>
       </c>
       <c r="AS41" s="11">
-        <v>34839</v>
+        <v>79572</v>
       </c>
       <c r="AT41" s="11">
-        <v>68072</v>
+        <v>62600</v>
       </c>
       <c r="AU41" s="11">
-        <v>79571</v>
+        <v>111343</v>
       </c>
       <c r="AV41" s="11">
-        <v>62600</v>
+        <v>89440</v>
       </c>
       <c r="AW41" s="11">
-        <v>111343</v>
+        <v>74588</v>
       </c>
       <c r="AX41" s="11">
-        <v>89440</v>
+        <v>162823</v>
       </c>
       <c r="AY41" s="11">
-        <v>74588</v>
+        <v>62209</v>
       </c>
       <c r="AZ41" s="11">
-        <v>162823</v>
+        <v>95495</v>
       </c>
       <c r="BA41" s="11">
-        <v>62209</v>
+        <v>50653</v>
       </c>
       <c r="BB41" s="11">
-        <v>95495</v>
+        <v>161970</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>69</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>70</v>
       </c>
@@ -5647,11 +5647,11 @@
       <c r="V43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>60</v>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <v>0</v>
       </c>
       <c r="Y43" s="11">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>77</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>78</v>
       </c>
@@ -5861,11 +5861,11 @@
       <c r="V45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>60</v>
+      <c r="W45" s="11">
+        <v>0</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
       </c>
       <c r="Y45" s="11">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>71</v>
       </c>
@@ -6019,103 +6019,103 @@
         <v>0</v>
       </c>
       <c r="W46" s="19">
-        <v>0</v>
+        <v>6571</v>
       </c>
       <c r="X46" s="19">
-        <v>0</v>
+        <v>108153</v>
       </c>
       <c r="Y46" s="19">
-        <v>6571</v>
+        <v>88473</v>
       </c>
       <c r="Z46" s="19">
-        <v>108153</v>
+        <v>137353</v>
       </c>
       <c r="AA46" s="19">
-        <v>88473</v>
+        <v>92633</v>
       </c>
       <c r="AB46" s="19">
-        <v>137353</v>
+        <v>26369</v>
       </c>
       <c r="AC46" s="19">
-        <v>92633</v>
+        <v>135319</v>
       </c>
       <c r="AD46" s="19">
-        <v>26369</v>
+        <v>46690</v>
       </c>
       <c r="AE46" s="19">
-        <v>135319</v>
+        <v>123823</v>
       </c>
       <c r="AF46" s="19">
-        <v>46690</v>
+        <v>98465</v>
       </c>
       <c r="AG46" s="19">
-        <v>123823</v>
+        <v>76452</v>
       </c>
       <c r="AH46" s="19">
-        <v>98465</v>
+        <v>49886</v>
       </c>
       <c r="AI46" s="19">
-        <v>76452</v>
+        <v>141197</v>
       </c>
       <c r="AJ46" s="19">
-        <v>49886</v>
+        <v>22028</v>
       </c>
       <c r="AK46" s="19">
-        <v>141197</v>
+        <v>118362</v>
       </c>
       <c r="AL46" s="19">
-        <v>22028</v>
+        <v>44214</v>
       </c>
       <c r="AM46" s="19">
-        <v>118362</v>
+        <v>59586</v>
       </c>
       <c r="AN46" s="19">
-        <v>44214</v>
+        <v>75828</v>
       </c>
       <c r="AO46" s="19">
-        <v>59586</v>
+        <v>118921</v>
       </c>
       <c r="AP46" s="19">
-        <v>75828</v>
+        <v>140140</v>
       </c>
       <c r="AQ46" s="19">
-        <v>118921</v>
+        <v>34839</v>
       </c>
       <c r="AR46" s="19">
-        <v>140139</v>
+        <v>68072</v>
       </c>
       <c r="AS46" s="19">
-        <v>34839</v>
+        <v>79572</v>
       </c>
       <c r="AT46" s="19">
-        <v>68072</v>
+        <v>62600</v>
       </c>
       <c r="AU46" s="19">
-        <v>79571</v>
+        <v>111343</v>
       </c>
       <c r="AV46" s="19">
-        <v>62600</v>
+        <v>89440</v>
       </c>
       <c r="AW46" s="19">
-        <v>111343</v>
+        <v>74588</v>
       </c>
       <c r="AX46" s="19">
-        <v>89440</v>
+        <v>162823</v>
       </c>
       <c r="AY46" s="19">
-        <v>74588</v>
+        <v>62209</v>
       </c>
       <c r="AZ46" s="19">
-        <v>162823</v>
+        <v>95495</v>
       </c>
       <c r="BA46" s="19">
-        <v>62209</v>
+        <v>50653</v>
       </c>
       <c r="BB46" s="19">
-        <v>95495</v>
+        <v>161970</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6170,7 +6170,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6225,7 +6225,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6280,7 +6280,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>79</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6492,7 +6492,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>80</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>74</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>81</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="BA54" s="13"/>
       <c r="BB54" s="13"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>58</v>
       </c>
@@ -6825,32 +6825,32 @@
       <c r="V55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X55" s="15" t="s">
-        <v>60</v>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+      <c r="X55" s="15">
+        <v>0</v>
       </c>
       <c r="Y55" s="15">
         <v>0</v>
       </c>
       <c r="Z55" s="15">
-        <v>0</v>
+        <v>404657</v>
       </c>
       <c r="AA55" s="15">
         <v>0</v>
       </c>
       <c r="AB55" s="15">
-        <v>404657</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="15">
-        <v>0</v>
+        <v>595181</v>
       </c>
       <c r="AD55" s="15">
         <v>0</v>
       </c>
       <c r="AE55" s="15">
-        <v>595181</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="15">
         <v>0</v>
@@ -6862,40 +6862,40 @@
         <v>0</v>
       </c>
       <c r="AI55" s="15">
-        <v>0</v>
+        <v>1068033</v>
       </c>
       <c r="AJ55" s="15">
         <v>0</v>
       </c>
       <c r="AK55" s="15">
-        <v>1068033</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="15">
         <v>0</v>
       </c>
       <c r="AM55" s="15">
-        <v>0</v>
+        <v>1498293</v>
       </c>
       <c r="AN55" s="15">
         <v>0</v>
       </c>
       <c r="AO55" s="15">
-        <v>1498293</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="15">
-        <v>0</v>
+        <v>1697095</v>
       </c>
       <c r="AQ55" s="15">
         <v>0</v>
       </c>
       <c r="AR55" s="15">
-        <v>1696035</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="15">
         <v>0</v>
       </c>
-      <c r="AT55" s="15">
-        <v>0</v>
+      <c r="AT55" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AU55" s="15" t="s">
         <v>60</v>
@@ -6922,7 +6922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>61</v>
       </c>
@@ -6984,77 +6984,77 @@
       <c r="V56" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W56" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X56" s="17" t="s">
-        <v>60</v>
+      <c r="W56" s="17">
+        <v>0</v>
+      </c>
+      <c r="X56" s="17">
+        <v>3240255</v>
       </c>
       <c r="Y56" s="17">
-        <v>0</v>
+        <v>2063336</v>
       </c>
       <c r="Z56" s="17">
-        <v>3240255</v>
+        <v>3971669</v>
       </c>
       <c r="AA56" s="17">
-        <v>2063336</v>
+        <v>5743178</v>
       </c>
       <c r="AB56" s="17">
-        <v>3971669</v>
+        <v>1166994</v>
       </c>
       <c r="AC56" s="17">
-        <v>5743178</v>
+        <v>7344131</v>
       </c>
       <c r="AD56" s="17">
-        <v>1166994</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="17">
-        <v>7344131</v>
+        <v>8976512</v>
       </c>
       <c r="AF56" s="17">
-        <v>0</v>
+        <v>3147594</v>
       </c>
       <c r="AG56" s="17">
-        <v>8976512</v>
+        <v>2824940</v>
       </c>
       <c r="AH56" s="17">
-        <v>3147594</v>
+        <v>2378190</v>
       </c>
       <c r="AI56" s="17">
-        <v>2824940</v>
+        <v>5585101</v>
       </c>
       <c r="AJ56" s="17">
-        <v>2378190</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="17">
-        <v>5585101</v>
+        <v>10066130</v>
       </c>
       <c r="AL56" s="17">
         <v>0</v>
       </c>
       <c r="AM56" s="17">
-        <v>10066130</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="17">
-        <v>0</v>
+        <v>6397029</v>
       </c>
       <c r="AO56" s="17">
-        <v>0</v>
+        <v>4918158</v>
       </c>
       <c r="AP56" s="17">
-        <v>6397029</v>
+        <v>8893601</v>
       </c>
       <c r="AQ56" s="17">
-        <v>4918158</v>
+        <v>1052621</v>
       </c>
       <c r="AR56" s="17">
-        <v>8956508</v>
+        <v>5248817</v>
       </c>
       <c r="AS56" s="17">
-        <v>1052621</v>
-      </c>
-      <c r="AT56" s="17">
-        <v>5322638</v>
+        <v>4160804</v>
+      </c>
+      <c r="AT56" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AU56" s="17" t="s">
         <v>60</v>
@@ -7081,7 +7081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>62</v>
       </c>
@@ -7143,104 +7143,104 @@
       <c r="V57" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W57" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X57" s="15" t="s">
-        <v>60</v>
+      <c r="W57" s="15">
+        <v>186772</v>
+      </c>
+      <c r="X57" s="15">
+        <v>330008</v>
       </c>
       <c r="Y57" s="15">
-        <v>186772</v>
+        <v>394392</v>
       </c>
       <c r="Z57" s="15">
-        <v>330008</v>
+        <v>967446</v>
       </c>
       <c r="AA57" s="15">
-        <v>394392</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="15">
-        <v>967446</v>
+        <v>456453</v>
       </c>
       <c r="AC57" s="15">
-        <v>0</v>
+        <v>694650</v>
       </c>
       <c r="AD57" s="15">
-        <v>456453</v>
+        <v>1355781</v>
       </c>
       <c r="AE57" s="15">
-        <v>694650</v>
+        <v>39790</v>
       </c>
       <c r="AF57" s="15">
-        <v>1355781</v>
+        <v>2372504</v>
       </c>
       <c r="AG57" s="15">
-        <v>39790</v>
+        <v>1229996</v>
       </c>
       <c r="AH57" s="15">
-        <v>2372504</v>
+        <v>269800</v>
       </c>
       <c r="AI57" s="15">
-        <v>1229996</v>
+        <v>2337265</v>
       </c>
       <c r="AJ57" s="15">
-        <v>269800</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="15">
-        <v>2337265</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="15">
-        <v>0</v>
+        <v>4558120</v>
       </c>
       <c r="AM57" s="15">
         <v>0</v>
       </c>
       <c r="AN57" s="15">
-        <v>4558120</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="15">
-        <v>0</v>
+        <v>3939798</v>
       </c>
       <c r="AP57" s="15">
         <v>0</v>
       </c>
       <c r="AQ57" s="15">
-        <v>3939798</v>
+        <v>2620806</v>
       </c>
       <c r="AR57" s="15">
         <v>0</v>
       </c>
       <c r="AS57" s="15">
-        <v>2620806</v>
+        <v>2335451</v>
       </c>
       <c r="AT57" s="15">
-        <v>0</v>
+        <v>1989709</v>
       </c>
       <c r="AU57" s="15">
-        <v>2335451</v>
+        <v>1881074</v>
       </c>
       <c r="AV57" s="15">
-        <v>2143264</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="15">
-        <v>1683060</v>
+        <v>1728017</v>
       </c>
       <c r="AX57" s="15">
-        <v>0</v>
+        <v>780262</v>
       </c>
       <c r="AY57" s="15">
-        <v>1728017</v>
+        <v>1040154</v>
       </c>
       <c r="AZ57" s="15">
-        <v>780262</v>
+        <v>1749154</v>
       </c>
       <c r="BA57" s="15">
-        <v>1040154</v>
+        <v>1436829</v>
       </c>
       <c r="BB57" s="15">
-        <v>1850997</v>
+        <v>3087703</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>63</v>
       </c>
@@ -7302,104 +7302,104 @@
       <c r="V58" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W58" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X58" s="17" t="s">
-        <v>60</v>
+      <c r="W58" s="17">
+        <v>133866</v>
+      </c>
+      <c r="X58" s="17">
+        <v>177817</v>
       </c>
       <c r="Y58" s="17">
-        <v>133866</v>
+        <v>283570</v>
       </c>
       <c r="Z58" s="17">
-        <v>177817</v>
+        <v>669413</v>
       </c>
       <c r="AA58" s="17">
-        <v>283570</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="17">
-        <v>669413</v>
+        <v>446232</v>
       </c>
       <c r="AC58" s="17">
-        <v>0</v>
+        <v>659080</v>
       </c>
       <c r="AD58" s="17">
-        <v>446232</v>
+        <v>1284571</v>
       </c>
       <c r="AE58" s="17">
-        <v>659080</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="17">
-        <v>1284571</v>
+        <v>2036645</v>
       </c>
       <c r="AG58" s="17">
-        <v>0</v>
+        <v>737101</v>
       </c>
       <c r="AH58" s="17">
-        <v>2036645</v>
+        <v>194900</v>
       </c>
       <c r="AI58" s="17">
-        <v>737101</v>
+        <v>1831650</v>
       </c>
       <c r="AJ58" s="17">
-        <v>194900</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="17">
-        <v>1831650</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="17">
-        <v>0</v>
+        <v>3365759</v>
       </c>
       <c r="AM58" s="17">
         <v>0</v>
       </c>
       <c r="AN58" s="17">
-        <v>3365759</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="17">
-        <v>0</v>
+        <v>3082401</v>
       </c>
       <c r="AP58" s="17">
         <v>0</v>
       </c>
       <c r="AQ58" s="17">
-        <v>3082401</v>
+        <v>1502760</v>
       </c>
       <c r="AR58" s="17">
         <v>0</v>
       </c>
       <c r="AS58" s="17">
-        <v>1502760</v>
+        <v>1348376</v>
       </c>
       <c r="AT58" s="17">
-        <v>0</v>
+        <v>1160506</v>
       </c>
       <c r="AU58" s="17">
-        <v>1348376</v>
+        <v>1099061</v>
       </c>
       <c r="AV58" s="17">
-        <v>1250067</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="17">
-        <v>1003505</v>
+        <v>1049053</v>
       </c>
       <c r="AX58" s="17">
-        <v>0</v>
+        <v>357849</v>
       </c>
       <c r="AY58" s="17">
-        <v>1049053</v>
+        <v>1652914</v>
       </c>
       <c r="AZ58" s="17">
-        <v>357849</v>
+        <v>1999950</v>
       </c>
       <c r="BA58" s="17">
-        <v>1652914</v>
+        <v>554869</v>
       </c>
       <c r="BB58" s="17">
-        <v>2215959</v>
+        <v>1855448</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>64</v>
       </c>
@@ -7461,20 +7461,20 @@
       <c r="V59" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W59" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X59" s="15" t="s">
-        <v>60</v>
+      <c r="W59" s="15">
+        <v>0</v>
+      </c>
+      <c r="X59" s="15">
+        <v>0</v>
       </c>
       <c r="Y59" s="15">
-        <v>0</v>
+        <v>1607026</v>
       </c>
       <c r="Z59" s="15">
         <v>0</v>
       </c>
       <c r="AA59" s="15">
-        <v>1607026</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="15">
         <v>0</v>
@@ -7483,52 +7483,52 @@
         <v>0</v>
       </c>
       <c r="AD59" s="15">
-        <v>0</v>
+        <v>1942872</v>
       </c>
       <c r="AE59" s="15">
         <v>0</v>
       </c>
       <c r="AF59" s="15">
-        <v>1942872</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="15">
-        <v>0</v>
+        <v>1445204</v>
       </c>
       <c r="AH59" s="15">
-        <v>0</v>
+        <v>960000</v>
       </c>
       <c r="AI59" s="15">
-        <v>1445204</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="15">
-        <v>960000</v>
+        <v>2746187</v>
       </c>
       <c r="AK59" s="15">
         <v>0</v>
       </c>
       <c r="AL59" s="15">
-        <v>2746187</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="15">
-        <v>0</v>
+        <v>4000557</v>
       </c>
       <c r="AN59" s="15">
         <v>0</v>
       </c>
       <c r="AO59" s="15">
-        <v>4000557</v>
+        <v>1544237</v>
       </c>
       <c r="AP59" s="15">
-        <v>0</v>
+        <v>1760226</v>
       </c>
       <c r="AQ59" s="15">
-        <v>1544237</v>
-      </c>
-      <c r="AR59" s="15">
-        <v>1815541</v>
-      </c>
-      <c r="AS59" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS59" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AT59" s="15" t="s">
         <v>60</v>
@@ -7558,7 +7558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>65</v>
       </c>
@@ -7683,41 +7683,41 @@
       <c r="AQ60" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AR60" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS60" s="17" t="s">
-        <v>60</v>
+      <c r="AR60" s="17">
+        <v>1990194</v>
+      </c>
+      <c r="AS60" s="17">
+        <v>1935844</v>
       </c>
       <c r="AT60" s="17">
-        <v>2084294</v>
+        <v>1784091</v>
       </c>
       <c r="AU60" s="17">
-        <v>1908254</v>
+        <v>0</v>
       </c>
       <c r="AV60" s="17">
-        <v>1808468</v>
+        <v>1406555</v>
       </c>
       <c r="AW60" s="17">
         <v>0</v>
       </c>
       <c r="AX60" s="17">
-        <v>1274103</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="17">
-        <v>0</v>
+        <v>3137913</v>
       </c>
       <c r="AZ60" s="17">
-        <v>0</v>
+        <v>2461909</v>
       </c>
       <c r="BA60" s="17">
-        <v>3137913</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="17">
-        <v>2461909</v>
+        <v>3399345</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>66</v>
       </c>
@@ -7848,35 +7848,35 @@
       <c r="AS61" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AT61" s="15" t="s">
-        <v>60</v>
+      <c r="AT61" s="15">
+        <v>0</v>
       </c>
       <c r="AU61" s="15">
-        <v>4104271</v>
+        <v>6787492</v>
       </c>
       <c r="AV61" s="15">
-        <v>-56</v>
+        <v>5582676</v>
       </c>
       <c r="AW61" s="15">
-        <v>6787444</v>
+        <v>4009525</v>
       </c>
       <c r="AX61" s="15">
-        <v>5408878</v>
+        <v>10792366</v>
       </c>
       <c r="AY61" s="15">
-        <v>4009525</v>
+        <v>1543023</v>
       </c>
       <c r="AZ61" s="15">
-        <v>10740474</v>
+        <v>4165958</v>
       </c>
       <c r="BA61" s="15">
-        <v>1543023</v>
+        <v>2977225</v>
       </c>
       <c r="BB61" s="15">
-        <v>4165958</v>
+        <v>7238644</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>67</v>
       </c>
@@ -8007,35 +8007,35 @@
       <c r="AS62" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AT62" s="17" t="s">
-        <v>60</v>
+      <c r="AT62" s="17">
+        <v>3200463</v>
       </c>
       <c r="AU62" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="17">
-        <v>3200463</v>
+        <v>0</v>
       </c>
       <c r="AW62" s="17">
         <v>0</v>
       </c>
       <c r="AX62" s="17">
-        <v>-166</v>
+        <v>630300</v>
       </c>
       <c r="AY62" s="17">
         <v>0</v>
       </c>
       <c r="AZ62" s="17">
-        <v>630300</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="17">
         <v>0</v>
       </c>
       <c r="BB62" s="17">
-        <v>0</v>
+        <v>1221025</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>76</v>
       </c>
@@ -8096,103 +8096,103 @@
         <v>0</v>
       </c>
       <c r="W63" s="11">
-        <v>0</v>
+        <v>320638</v>
       </c>
       <c r="X63" s="11">
-        <v>0</v>
+        <v>3748080</v>
       </c>
       <c r="Y63" s="11">
-        <v>320638</v>
+        <v>4348324</v>
       </c>
       <c r="Z63" s="11">
-        <v>3748080</v>
+        <v>6013185</v>
       </c>
       <c r="AA63" s="11">
-        <v>4348324</v>
+        <v>5743178</v>
       </c>
       <c r="AB63" s="11">
-        <v>6013185</v>
+        <v>2069679</v>
       </c>
       <c r="AC63" s="11">
-        <v>5743178</v>
+        <v>9293042</v>
       </c>
       <c r="AD63" s="11">
-        <v>2069679</v>
+        <v>4583224</v>
       </c>
       <c r="AE63" s="11">
-        <v>9293042</v>
+        <v>9016302</v>
       </c>
       <c r="AF63" s="11">
-        <v>4583224</v>
+        <v>7556743</v>
       </c>
       <c r="AG63" s="11">
-        <v>9016302</v>
+        <v>6237241</v>
       </c>
       <c r="AH63" s="11">
-        <v>7556743</v>
+        <v>3802890</v>
       </c>
       <c r="AI63" s="11">
-        <v>6237241</v>
+        <v>10822049</v>
       </c>
       <c r="AJ63" s="11">
-        <v>3802890</v>
+        <v>2746187</v>
       </c>
       <c r="AK63" s="11">
-        <v>10822049</v>
+        <v>10066130</v>
       </c>
       <c r="AL63" s="11">
-        <v>2746187</v>
+        <v>7923879</v>
       </c>
       <c r="AM63" s="11">
-        <v>10066130</v>
+        <v>5498850</v>
       </c>
       <c r="AN63" s="11">
-        <v>7923879</v>
+        <v>6397029</v>
       </c>
       <c r="AO63" s="11">
-        <v>5498850</v>
+        <v>13484594</v>
       </c>
       <c r="AP63" s="11">
-        <v>6397029</v>
+        <v>12350922</v>
       </c>
       <c r="AQ63" s="11">
-        <v>13484594</v>
+        <v>5176187</v>
       </c>
       <c r="AR63" s="11">
-        <v>12468084</v>
+        <v>7239011</v>
       </c>
       <c r="AS63" s="11">
-        <v>5176187</v>
+        <v>9780475</v>
       </c>
       <c r="AT63" s="11">
-        <v>7406932</v>
+        <v>8134769</v>
       </c>
       <c r="AU63" s="11">
-        <v>9696353</v>
+        <v>9767627</v>
       </c>
       <c r="AV63" s="11">
-        <v>8402206</v>
+        <v>6989231</v>
       </c>
       <c r="AW63" s="11">
-        <v>9474009</v>
+        <v>6786595</v>
       </c>
       <c r="AX63" s="11">
-        <v>6682815</v>
+        <v>12560777</v>
       </c>
       <c r="AY63" s="11">
-        <v>6786595</v>
+        <v>7374004</v>
       </c>
       <c r="AZ63" s="11">
-        <v>12508885</v>
+        <v>10376971</v>
       </c>
       <c r="BA63" s="11">
-        <v>7374004</v>
+        <v>4968923</v>
       </c>
       <c r="BB63" s="11">
-        <v>10694823</v>
+        <v>16802165</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>83</v>
       </c>
@@ -8249,7 +8249,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>70</v>
       </c>
@@ -8311,11 +8311,11 @@
       <c r="V65" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>60</v>
+      <c r="W65" s="11">
+        <v>0</v>
+      </c>
+      <c r="X65" s="11">
+        <v>0</v>
       </c>
       <c r="Y65" s="11">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>84</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>78</v>
       </c>
@@ -8527,11 +8527,11 @@
       <c r="V67" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>60</v>
+      <c r="W67" s="11">
+        <v>0</v>
+      </c>
+      <c r="X67" s="11">
+        <v>0</v>
       </c>
       <c r="Y67" s="11">
         <v>0</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>85</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="BA68" s="13"/>
       <c r="BB68" s="13"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>86</v>
       </c>
@@ -8743,11 +8743,11 @@
       <c r="V69" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W69" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X69" s="15" t="s">
-        <v>60</v>
+      <c r="W69" s="15">
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <v>0</v>
       </c>
       <c r="Y69" s="15">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>71</v>
       </c>
@@ -8901,103 +8901,103 @@
         <v>0</v>
       </c>
       <c r="W70" s="19">
-        <v>0</v>
+        <v>320638</v>
       </c>
       <c r="X70" s="19">
-        <v>0</v>
+        <v>3748080</v>
       </c>
       <c r="Y70" s="19">
-        <v>320638</v>
+        <v>4348324</v>
       </c>
       <c r="Z70" s="19">
-        <v>3748080</v>
+        <v>6013185</v>
       </c>
       <c r="AA70" s="19">
-        <v>4348324</v>
+        <v>5743178</v>
       </c>
       <c r="AB70" s="19">
-        <v>6013185</v>
+        <v>2069679</v>
       </c>
       <c r="AC70" s="19">
-        <v>5743178</v>
+        <v>9293042</v>
       </c>
       <c r="AD70" s="19">
-        <v>2069679</v>
+        <v>4583224</v>
       </c>
       <c r="AE70" s="19">
-        <v>9293042</v>
+        <v>9016302</v>
       </c>
       <c r="AF70" s="19">
-        <v>4583224</v>
+        <v>7556743</v>
       </c>
       <c r="AG70" s="19">
-        <v>9016302</v>
+        <v>6237241</v>
       </c>
       <c r="AH70" s="19">
-        <v>7556743</v>
+        <v>3802890</v>
       </c>
       <c r="AI70" s="19">
-        <v>6237241</v>
+        <v>10822049</v>
       </c>
       <c r="AJ70" s="19">
-        <v>3802890</v>
+        <v>2746187</v>
       </c>
       <c r="AK70" s="19">
-        <v>10822049</v>
+        <v>10066130</v>
       </c>
       <c r="AL70" s="19">
-        <v>2746187</v>
+        <v>7923879</v>
       </c>
       <c r="AM70" s="19">
-        <v>10066130</v>
+        <v>5498850</v>
       </c>
       <c r="AN70" s="19">
-        <v>7923879</v>
+        <v>6397029</v>
       </c>
       <c r="AO70" s="19">
-        <v>5498850</v>
+        <v>13484594</v>
       </c>
       <c r="AP70" s="19">
-        <v>6397029</v>
+        <v>12350922</v>
       </c>
       <c r="AQ70" s="19">
-        <v>13484594</v>
+        <v>5176187</v>
       </c>
       <c r="AR70" s="19">
-        <v>12468084</v>
+        <v>7239011</v>
       </c>
       <c r="AS70" s="19">
-        <v>5176187</v>
+        <v>9780475</v>
       </c>
       <c r="AT70" s="19">
-        <v>7406932</v>
+        <v>8134769</v>
       </c>
       <c r="AU70" s="19">
-        <v>9696353</v>
+        <v>9767627</v>
       </c>
       <c r="AV70" s="19">
-        <v>8402206</v>
+        <v>6989231</v>
       </c>
       <c r="AW70" s="19">
-        <v>9474009</v>
+        <v>6786595</v>
       </c>
       <c r="AX70" s="19">
-        <v>6682815</v>
+        <v>12560777</v>
       </c>
       <c r="AY70" s="19">
-        <v>6786595</v>
+        <v>7374004</v>
       </c>
       <c r="AZ70" s="19">
-        <v>12508885</v>
+        <v>10376971</v>
       </c>
       <c r="BA70" s="19">
-        <v>7374004</v>
+        <v>4968923</v>
       </c>
       <c r="BB70" s="19">
-        <v>10694823</v>
+        <v>16802165</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9052,7 +9052,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9107,7 +9107,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9162,7 +9162,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>87</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9374,7 +9374,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>88</v>
       </c>
@@ -9431,7 +9431,7 @@
       <c r="BA76" s="13"/>
       <c r="BB76" s="13"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
         <v>58</v>
       </c>
@@ -9502,23 +9502,23 @@
       <c r="Y77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Z77" s="15" t="s">
-        <v>60</v>
+      <c r="Z77" s="15">
+        <v>13086379</v>
       </c>
       <c r="AA77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AB77" s="15">
-        <v>13086379</v>
-      </c>
-      <c r="AC77" s="15" t="s">
-        <v>60</v>
+      <c r="AB77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC77" s="15">
+        <v>22082999</v>
       </c>
       <c r="AD77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AE77" s="15">
-        <v>22082999</v>
+      <c r="AE77" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AF77" s="15" t="s">
         <v>60</v>
@@ -9529,35 +9529,35 @@
       <c r="AH77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI77" s="15" t="s">
-        <v>60</v>
+      <c r="AI77" s="15">
+        <v>31562192</v>
       </c>
       <c r="AJ77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AK77" s="15">
-        <v>31562192</v>
+      <c r="AK77" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AL77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AM77" s="15" t="s">
-        <v>60</v>
+      <c r="AM77" s="15">
+        <v>43455234</v>
       </c>
       <c r="AN77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AO77" s="15">
-        <v>43455234</v>
-      </c>
-      <c r="AP77" s="15" t="s">
-        <v>60</v>
+      <c r="AO77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP77" s="15">
+        <v>67023222</v>
       </c>
       <c r="AQ77" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AR77" s="15">
-        <v>67011902</v>
+      <c r="AR77" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AS77" s="15" t="s">
         <v>60</v>
@@ -9590,7 +9590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
         <v>61</v>
       </c>
@@ -9655,74 +9655,74 @@
       <c r="W78" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="X78" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y78" s="17" t="s">
-        <v>60</v>
+      <c r="X78" s="17">
+        <v>32920722</v>
+      </c>
+      <c r="Y78" s="17">
+        <v>40745986</v>
       </c>
       <c r="Z78" s="17">
-        <v>32920722</v>
+        <v>48404292</v>
       </c>
       <c r="AA78" s="17">
-        <v>40745986</v>
+        <v>61999266</v>
       </c>
       <c r="AB78" s="17">
-        <v>48404292</v>
+        <v>69530148</v>
       </c>
       <c r="AC78" s="17">
-        <v>61999266</v>
-      </c>
-      <c r="AD78" s="17">
-        <v>69530148</v>
+        <v>78396770</v>
+      </c>
+      <c r="AD78" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AE78" s="17">
-        <v>78396770</v>
-      </c>
-      <c r="AF78" s="17" t="s">
-        <v>60</v>
+        <v>72841788</v>
+      </c>
+      <c r="AF78" s="17">
+        <v>69889069</v>
       </c>
       <c r="AG78" s="17">
-        <v>72841788</v>
+        <v>68126658</v>
       </c>
       <c r="AH78" s="17">
-        <v>69889069</v>
+        <v>68951031</v>
       </c>
       <c r="AI78" s="17">
-        <v>68126658</v>
-      </c>
-      <c r="AJ78" s="17">
-        <v>68951031</v>
+        <v>73978767</v>
+      </c>
+      <c r="AJ78" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AK78" s="17">
-        <v>73978767</v>
+        <v>85045285</v>
       </c>
       <c r="AL78" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AM78" s="17">
-        <v>85045285</v>
-      </c>
-      <c r="AN78" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO78" s="17" t="s">
-        <v>60</v>
+      <c r="AM78" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN78" s="17">
+        <v>84362360</v>
+      </c>
+      <c r="AO78" s="17">
+        <v>72044034</v>
       </c>
       <c r="AP78" s="17">
-        <v>84362360</v>
+        <v>84878803</v>
       </c>
       <c r="AQ78" s="17">
-        <v>72044034</v>
+        <v>73027681</v>
       </c>
       <c r="AR78" s="17">
-        <v>84990395</v>
+        <v>90223064</v>
       </c>
       <c r="AS78" s="17">
-        <v>73027681</v>
-      </c>
-      <c r="AT78" s="17">
-        <v>91491990</v>
+        <v>84746604</v>
+      </c>
+      <c r="AT78" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AU78" s="17" t="s">
         <v>60</v>
@@ -9749,7 +9749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>62</v>
       </c>
@@ -9811,104 +9811,104 @@
       <c r="V79" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W79" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X79" s="15" t="s">
-        <v>60</v>
+      <c r="W79" s="15">
+        <v>47367994</v>
+      </c>
+      <c r="X79" s="15">
+        <v>50833025</v>
       </c>
       <c r="Y79" s="15">
-        <v>47367994</v>
+        <v>54534292</v>
       </c>
       <c r="Z79" s="15">
-        <v>50833025</v>
-      </c>
-      <c r="AA79" s="15">
-        <v>54534292</v>
+        <v>66674431</v>
+      </c>
+      <c r="AA79" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AB79" s="15">
-        <v>66674431</v>
-      </c>
-      <c r="AC79" s="15" t="s">
-        <v>60</v>
+        <v>95452321</v>
+      </c>
+      <c r="AC79" s="15">
+        <v>93429724</v>
       </c>
       <c r="AD79" s="15">
-        <v>95452321</v>
+        <v>97209507</v>
       </c>
       <c r="AE79" s="15">
-        <v>93429724</v>
+        <v>67440678</v>
       </c>
       <c r="AF79" s="15">
-        <v>97209507</v>
+        <v>79459575</v>
       </c>
       <c r="AG79" s="15">
-        <v>67440678</v>
+        <v>90354514</v>
       </c>
       <c r="AH79" s="15">
-        <v>79459575</v>
+        <v>70407098</v>
       </c>
       <c r="AI79" s="15">
-        <v>90354514</v>
-      </c>
-      <c r="AJ79" s="15">
-        <v>70407098</v>
-      </c>
-      <c r="AK79" s="15">
         <v>130851248</v>
       </c>
-      <c r="AL79" s="15" t="s">
-        <v>60</v>
+      <c r="AJ79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL79" s="15">
+        <v>178883089</v>
       </c>
       <c r="AM79" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AN79" s="15">
-        <v>178883089</v>
-      </c>
-      <c r="AO79" s="15" t="s">
-        <v>60</v>
+      <c r="AN79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO79" s="15">
+        <v>169439102</v>
       </c>
       <c r="AP79" s="15" t="s">
         <v>60</v>
       </c>
       <c r="AQ79" s="15">
-        <v>169439102</v>
-      </c>
-      <c r="AR79" s="15">
-        <v>0</v>
+        <v>203668480</v>
+      </c>
+      <c r="AR79" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AS79" s="15">
-        <v>203668480</v>
-      </c>
-      <c r="AT79" s="15" t="s">
-        <v>60</v>
+        <v>181676468</v>
+      </c>
+      <c r="AT79" s="15">
+        <v>154648609</v>
       </c>
       <c r="AU79" s="15">
-        <v>181676468</v>
-      </c>
-      <c r="AV79" s="15">
-        <v>160618633</v>
+        <v>146261877</v>
+      </c>
+      <c r="AV79" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AW79" s="15">
-        <v>141129587</v>
+        <v>134927540</v>
       </c>
       <c r="AX79" s="15">
-        <v>0</v>
+        <v>118707135</v>
       </c>
       <c r="AY79" s="15">
-        <v>134927540</v>
+        <v>133713074</v>
       </c>
       <c r="AZ79" s="15">
-        <v>118689078</v>
+        <v>140981220</v>
       </c>
       <c r="BA79" s="15">
-        <v>133713074</v>
+        <v>144666633</v>
       </c>
       <c r="BB79" s="15">
-        <v>149189732</v>
+        <v>185905413</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
         <v>63</v>
       </c>
@@ -9970,104 +9970,104 @@
       <c r="V80" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W80" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X80" s="17" t="s">
-        <v>60</v>
+      <c r="W80" s="17">
+        <v>50938356</v>
+      </c>
+      <c r="X80" s="17">
+        <v>54966615</v>
       </c>
       <c r="Y80" s="17">
-        <v>50938356</v>
+        <v>57706553</v>
       </c>
       <c r="Z80" s="17">
-        <v>54966615</v>
-      </c>
-      <c r="AA80" s="17">
-        <v>57706553</v>
+        <v>67829871</v>
+      </c>
+      <c r="AA80" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AB80" s="17">
-        <v>67829871</v>
-      </c>
-      <c r="AC80" s="17" t="s">
-        <v>60</v>
+        <v>92906933</v>
+      </c>
+      <c r="AC80" s="17">
+        <v>90869985</v>
       </c>
       <c r="AD80" s="17">
-        <v>92906933</v>
-      </c>
-      <c r="AE80" s="17">
-        <v>90869985</v>
+        <v>101691814</v>
+      </c>
+      <c r="AE80" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AF80" s="17">
-        <v>101691814</v>
-      </c>
-      <c r="AG80" s="17" t="s">
-        <v>60</v>
+        <v>86408358</v>
+      </c>
+      <c r="AG80" s="17">
+        <v>94415396</v>
       </c>
       <c r="AH80" s="17">
-        <v>86408358</v>
+        <v>71444282</v>
       </c>
       <c r="AI80" s="17">
-        <v>94415396</v>
-      </c>
-      <c r="AJ80" s="17">
-        <v>71444282</v>
-      </c>
-      <c r="AK80" s="17">
         <v>130832143</v>
       </c>
-      <c r="AL80" s="17" t="s">
-        <v>60</v>
+      <c r="AJ80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL80" s="17">
+        <v>179670048</v>
       </c>
       <c r="AM80" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AN80" s="17">
-        <v>179670048</v>
-      </c>
-      <c r="AO80" s="17" t="s">
-        <v>60</v>
+      <c r="AN80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO80" s="17">
+        <v>176915629</v>
       </c>
       <c r="AP80" s="17" t="s">
         <v>60</v>
       </c>
       <c r="AQ80" s="17">
-        <v>176915629</v>
-      </c>
-      <c r="AR80" s="17">
-        <v>0</v>
+        <v>198856689</v>
+      </c>
+      <c r="AR80" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AS80" s="17">
-        <v>198856689</v>
-      </c>
-      <c r="AT80" s="17" t="s">
-        <v>60</v>
+        <v>179233816</v>
+      </c>
+      <c r="AT80" s="17">
+        <v>154651652</v>
       </c>
       <c r="AU80" s="17">
-        <v>179233816</v>
-      </c>
-      <c r="AV80" s="17">
-        <v>160611658</v>
+        <v>146248969</v>
+      </c>
+      <c r="AV80" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AW80" s="17">
-        <v>142009948</v>
+        <v>140247727</v>
       </c>
       <c r="AX80" s="17">
-        <v>0</v>
+        <v>126851826</v>
       </c>
       <c r="AY80" s="17">
-        <v>140247727</v>
+        <v>133709270</v>
       </c>
       <c r="AZ80" s="17">
-        <v>126851826</v>
+        <v>136739368</v>
       </c>
       <c r="BA80" s="17">
-        <v>133709270</v>
+        <v>139941740</v>
       </c>
       <c r="BB80" s="17">
-        <v>151508205</v>
+        <v>184805578</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
         <v>64</v>
       </c>
@@ -10135,14 +10135,14 @@
       <c r="X81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y81" s="15" t="s">
-        <v>60</v>
+      <c r="Y81" s="15">
+        <v>62559405</v>
       </c>
       <c r="Z81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA81" s="15">
-        <v>62559405</v>
+      <c r="AA81" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AB81" s="15" t="s">
         <v>60</v>
@@ -10150,50 +10150,50 @@
       <c r="AC81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AD81" s="15" t="s">
-        <v>60</v>
+      <c r="AD81" s="15">
+        <v>96607429</v>
       </c>
       <c r="AE81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AF81" s="15">
-        <v>96607429</v>
-      </c>
-      <c r="AG81" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH81" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI81" s="15">
+      <c r="AF81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG81" s="15">
         <v>106531328</v>
       </c>
+      <c r="AH81" s="15">
+        <v>108658744</v>
+      </c>
+      <c r="AI81" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AJ81" s="15">
-        <v>108658744</v>
+        <v>124668013</v>
       </c>
       <c r="AK81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL81" s="15">
-        <v>124668013</v>
-      </c>
-      <c r="AM81" s="15" t="s">
-        <v>60</v>
+      <c r="AL81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM81" s="15">
+        <v>159340304</v>
       </c>
       <c r="AN81" s="15" t="s">
         <v>60</v>
       </c>
       <c r="AO81" s="15">
-        <v>159340304</v>
-      </c>
-      <c r="AP81" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ81" s="15">
         <v>154733166</v>
       </c>
-      <c r="AR81" s="15">
-        <v>175958010</v>
+      <c r="AP81" s="15">
+        <v>175338779</v>
+      </c>
+      <c r="AQ81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR81" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AS81" s="15" t="s">
         <v>60</v>
@@ -10226,7 +10226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
         <v>65</v>
       </c>
@@ -10351,41 +10351,41 @@
       <c r="AQ82" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AR82" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS82" s="17" t="s">
-        <v>60</v>
+      <c r="AR82" s="17">
+        <v>201110954</v>
+      </c>
+      <c r="AS82" s="17">
+        <v>191724671</v>
       </c>
       <c r="AT82" s="17">
-        <v>210619846</v>
-      </c>
-      <c r="AU82" s="17">
-        <v>190344688</v>
+        <v>174432049</v>
+      </c>
+      <c r="AU82" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AV82" s="17">
-        <v>175238674</v>
-      </c>
-      <c r="AW82" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX82" s="17">
-        <v>148443112</v>
-      </c>
-      <c r="AY82" s="17" t="s">
-        <v>60</v>
+        <v>151797431</v>
+      </c>
+      <c r="AW82" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX82" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY82" s="17">
+        <v>156021927</v>
       </c>
       <c r="AZ82" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA82" s="17">
-        <v>156021927</v>
+        <v>143225842</v>
+      </c>
+      <c r="BA82" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="BB82" s="17">
-        <v>143225842</v>
+        <v>181143824</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
         <v>66</v>
       </c>
@@ -10520,31 +10520,31 @@
         <v>60</v>
       </c>
       <c r="AU83" s="15">
-        <v>84220422</v>
+        <v>74614882</v>
       </c>
       <c r="AV83" s="15">
-        <v>-522</v>
+        <v>69632000</v>
       </c>
       <c r="AW83" s="15">
-        <v>74614640</v>
+        <v>73838880</v>
       </c>
       <c r="AX83" s="15">
-        <v>69007755</v>
+        <v>86050487</v>
       </c>
       <c r="AY83" s="15">
-        <v>73838880</v>
+        <v>70277965</v>
       </c>
       <c r="AZ83" s="15">
-        <v>85637420</v>
+        <v>81250522</v>
       </c>
       <c r="BA83" s="15">
-        <v>70277965</v>
+        <v>80999701</v>
       </c>
       <c r="BB83" s="15">
-        <v>81250522</v>
+        <v>84653592</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
         <v>67</v>
       </c>
@@ -10675,32 +10675,32 @@
       <c r="AS84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AT84" s="17" t="s">
-        <v>60</v>
+      <c r="AT84" s="17">
+        <v>100008218</v>
       </c>
       <c r="AU84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AV84" s="17">
-        <v>100008218</v>
-      </c>
-      <c r="AW84" s="17">
-        <v>0</v>
+      <c r="AV84" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW84" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="AX84" s="17">
-        <v>-5187</v>
+        <v>22502678</v>
       </c>
       <c r="AY84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AZ84" s="17">
-        <v>22502678</v>
+      <c r="AZ84" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="BA84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="BB84" s="17" t="s">
-        <v>60</v>
+      <c r="BB84" s="17">
+        <v>39329543</v>
       </c>
     </row>
   </sheetData>
